--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2804064.754877897</v>
+        <v>-2804777.35935194</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169821.4284147701</v>
+        <v>169821.4284147698</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.4518058547</v>
       </c>
     </row>
     <row r="9">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>152.5360459684712</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="C11" t="n">
-        <v>171.8758480566236</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.4425103176721</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>13.62823928537105</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718772</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673106</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>159.5668145012117</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.4530649701509</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
     </row>
     <row r="12">
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.45818464705462</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,16 +1491,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.846506480668477</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>181.0867863677175</v>
+        <v>73.99773187889721</v>
       </c>
       <c r="T12" t="n">
-        <v>188.5623770505816</v>
+        <v>36.6405496213481</v>
       </c>
       <c r="U12" t="n">
         <v>58.89840834437498</v>
@@ -1509,7 +1509,7 @@
         <v>62.31927159084705</v>
       </c>
       <c r="W12" t="n">
-        <v>88.3749342524564</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="X12" t="n">
         <v>38.98326511491541</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,64 +1616,64 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>76.11457257393589</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>168.6883080494462</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>16.53078872718781</v>
+      </c>
+      <c r="S14" t="n">
+        <v>49.17968824550881</v>
+      </c>
+      <c r="T14" t="n">
+        <v>44.13476116065516</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>188.5623770505816</v>
-      </c>
-      <c r="G14" t="n">
-        <v>188.5623770505816</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>16.53078872718778</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>181.453064970151</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>156.6642650593951</v>
       </c>
     </row>
     <row r="15">
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810785</v>
+        <v>9.188502199810813</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.45818464705462</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.846506480668477</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>188.5623770505816</v>
+        <v>13.25780256851679</v>
       </c>
       <c r="T15" t="n">
-        <v>54.84368090798259</v>
+        <v>36.64054962134819</v>
       </c>
       <c r="U15" t="n">
-        <v>58.89840834437504</v>
+        <v>58.89840834437506</v>
       </c>
       <c r="V15" t="n">
-        <v>188.5623770505816</v>
+        <v>62.31927159084714</v>
       </c>
       <c r="W15" t="n">
-        <v>88.37493425245646</v>
+        <v>88.37493425245648</v>
       </c>
       <c r="X15" t="n">
-        <v>38.98326511491547</v>
+        <v>50.81733657711187</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.05463680947048</v>
+        <v>45.05463680947051</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650171</v>
+        <v>25.09353465650175</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412752</v>
+        <v>57.10576830412755</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605269</v>
+        <v>45.43126511605271</v>
       </c>
       <c r="U16" t="n">
         <v>110.3268994226099</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989477</v>
+        <v>66.7793658598948</v>
       </c>
       <c r="W16" t="n">
         <v>111.9810577647802</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368739</v>
+        <v>43.58980608368742</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961328</v>
+        <v>38.81162348961331</v>
       </c>
     </row>
     <row r="17">
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.45818464705462</v>
+        <v>29.65783353881885</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668477</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1977,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>106.7810505784292</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.6626485857721</v>
+        <v>76.66264858577216</v>
       </c>
       <c r="C20" t="n">
-        <v>52.78090558911759</v>
+        <v>52.78090558911765</v>
       </c>
       <c r="D20" t="n">
-        <v>40.34756785016606</v>
+        <v>40.34756785016612</v>
       </c>
       <c r="E20" t="n">
-        <v>74.05432026957493</v>
+        <v>74.05432026957499</v>
       </c>
       <c r="F20" t="n">
         <v>105.7746578479523</v>
@@ -2096,7 +2096,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H20" t="n">
-        <v>49.59336558194013</v>
+        <v>49.59336558194019</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.45519181709079</v>
+        <v>23.45519181709085</v>
       </c>
       <c r="W20" t="n">
-        <v>40.47187203370567</v>
+        <v>40.47187203370572</v>
       </c>
       <c r="X20" t="n">
-        <v>62.3581225026449</v>
+        <v>62.35812250264496</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.86097562638867</v>
+        <v>84.86097562638872</v>
       </c>
     </row>
     <row r="21">
@@ -2172,17 +2172,17 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>47.58488881655615</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668477</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.6626485857721</v>
+        <v>76.66264858577216</v>
       </c>
       <c r="C23" t="n">
-        <v>52.78090558911759</v>
+        <v>52.78090558911765</v>
       </c>
       <c r="D23" t="n">
-        <v>40.34756785016606</v>
+        <v>40.34756785016612</v>
       </c>
       <c r="E23" t="n">
-        <v>74.05432026957493</v>
+        <v>74.05432026957499</v>
       </c>
       <c r="F23" t="n">
         <v>105.7746578479523</v>
@@ -2333,7 +2333,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H23" t="n">
-        <v>49.59336558194013</v>
+        <v>49.59336558194019</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.45519181709079</v>
+        <v>23.45519181709085</v>
       </c>
       <c r="W23" t="n">
-        <v>40.47187203370567</v>
+        <v>40.47187203370572</v>
       </c>
       <c r="X23" t="n">
-        <v>62.3581225026449</v>
+        <v>62.35812250264496</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.86097562638867</v>
+        <v>84.86097562638872</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
-        <v>52.45818464705462</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.846506480668477</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>187.9862072499397</v>
       </c>
       <c r="Y24" t="n">
-        <v>149.0272207315632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6202637098006</v>
+        <v>160.6202637098007</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7385207131461</v>
+        <v>136.7385207131462</v>
       </c>
       <c r="D26" t="n">
         <v>124.3051829741946</v>
@@ -2573,7 +2573,7 @@
         <v>133.5509807059687</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52983825036452</v>
+        <v>27.52983825036455</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.04236090203124</v>
+        <v>14.04236090203126</v>
       </c>
       <c r="T26" t="n">
-        <v>8.997433817177589</v>
+        <v>8.997433817177617</v>
       </c>
       <c r="U26" t="n">
-        <v>36.68353794325355</v>
+        <v>36.68353794325358</v>
       </c>
       <c r="V26" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411194</v>
       </c>
       <c r="W26" t="n">
         <v>124.4294871577342</v>
       </c>
       <c r="X26" t="n">
-        <v>146.3157376266734</v>
+        <v>146.3157376266735</v>
       </c>
       <c r="Y26" t="n">
         <v>168.8185907504172</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>133.7477081360111</v>
+        <v>133.7477081360106</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.846506480668477</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.503222277870605</v>
+        <v>1.503222277870633</v>
       </c>
       <c r="U27" t="n">
-        <v>23.76108100089748</v>
+        <v>23.76108100089751</v>
       </c>
       <c r="V27" t="n">
-        <v>27.18194424736956</v>
+        <v>27.18194424736959</v>
       </c>
       <c r="W27" t="n">
-        <v>53.2376069089789</v>
+        <v>53.23760690897893</v>
       </c>
       <c r="X27" t="n">
-        <v>3.845937771437917</v>
+        <v>3.845937771437946</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.917309465992929</v>
+        <v>9.917309465992957</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.96844096064997</v>
+        <v>21.96844096065</v>
       </c>
       <c r="T28" t="n">
-        <v>10.29393777257513</v>
+        <v>10.29393777257516</v>
       </c>
       <c r="U28" t="n">
-        <v>75.1895720791323</v>
+        <v>75.18957207913233</v>
       </c>
       <c r="V28" t="n">
-        <v>31.64203851641722</v>
+        <v>31.64203851641724</v>
       </c>
       <c r="W28" t="n">
-        <v>76.84373042130264</v>
+        <v>76.84373042130267</v>
       </c>
       <c r="X28" t="n">
-        <v>8.452478740209841</v>
+        <v>8.45247874020987</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.674296146135731</v>
+        <v>3.674296146135759</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>160.6202637098006</v>
       </c>
       <c r="C29" t="n">
-        <v>136.738520713146</v>
+        <v>136.7385207131461</v>
       </c>
       <c r="D29" t="n">
         <v>124.3051829741945</v>
@@ -2804,13 +2804,13 @@
         <v>189.7322729719807</v>
       </c>
       <c r="G29" t="n">
-        <v>205.370860277572</v>
+        <v>205.3708602775721</v>
       </c>
       <c r="H29" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036443</v>
+        <v>27.52983825036446</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203116</v>
+        <v>14.04236090203119</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177495</v>
+        <v>8.997433817177523</v>
       </c>
       <c r="U29" t="n">
-        <v>36.68353794325347</v>
+        <v>36.6835379432535</v>
       </c>
       <c r="V29" t="n">
-        <v>107.4128069411192</v>
+        <v>107.4128069411193</v>
       </c>
       <c r="W29" t="n">
         <v>124.4294871577341</v>
@@ -2871,16 +2871,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>133.7477081360116</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.846506480668477</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.50322227787052</v>
+        <v>1.503222277870548</v>
       </c>
       <c r="U30" t="n">
-        <v>23.7610810008974</v>
+        <v>23.76108100089743</v>
       </c>
       <c r="V30" t="n">
-        <v>27.18194424736947</v>
+        <v>27.1819442473695</v>
       </c>
       <c r="W30" t="n">
-        <v>53.23760690897882</v>
+        <v>256.7211942258996</v>
       </c>
       <c r="X30" t="n">
-        <v>3.845937771437832</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.917309465992844</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.96844096064989</v>
+        <v>21.96844096064992</v>
       </c>
       <c r="T31" t="n">
-        <v>10.29393777257505</v>
+        <v>10.29393777257508</v>
       </c>
       <c r="U31" t="n">
-        <v>75.18957207913222</v>
+        <v>75.18957207913225</v>
       </c>
       <c r="V31" t="n">
-        <v>31.64203851641713</v>
+        <v>31.64203851641716</v>
       </c>
       <c r="W31" t="n">
-        <v>76.84373042130255</v>
+        <v>76.84373042130258</v>
       </c>
       <c r="X31" t="n">
-        <v>8.452478740209756</v>
+        <v>8.452478740209784</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.674296146135646</v>
+        <v>3.674296146135674</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>160.6202637098007</v>
+        <v>160.6202637098006</v>
       </c>
       <c r="C32" t="n">
-        <v>136.7385207131462</v>
+        <v>136.738520713146</v>
       </c>
       <c r="D32" t="n">
-        <v>124.3051829741946</v>
+        <v>124.3051829741945</v>
       </c>
       <c r="E32" t="n">
-        <v>158.0119353936035</v>
+        <v>158.0119353936034</v>
       </c>
       <c r="F32" t="n">
-        <v>189.7322729719808</v>
+        <v>189.7322729719807</v>
       </c>
       <c r="G32" t="n">
-        <v>205.3708602775721</v>
+        <v>205.370860277572</v>
       </c>
       <c r="H32" t="n">
-        <v>133.5509807059687</v>
+        <v>133.5509807059686</v>
       </c>
       <c r="I32" t="n">
-        <v>27.52983825036452</v>
+        <v>27.52983825036443</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203125</v>
+        <v>14.04236090203115</v>
       </c>
       <c r="T32" t="n">
-        <v>8.997433817177608</v>
+        <v>8.997433817177503</v>
       </c>
       <c r="U32" t="n">
-        <v>36.68353794325358</v>
+        <v>36.68353794325347</v>
       </c>
       <c r="V32" t="n">
-        <v>107.4128069411194</v>
+        <v>107.4128069411192</v>
       </c>
       <c r="W32" t="n">
-        <v>124.4294871577342</v>
+        <v>124.4294871577341</v>
       </c>
       <c r="X32" t="n">
-        <v>146.3157376266735</v>
+        <v>146.3157376266734</v>
       </c>
       <c r="Y32" t="n">
-        <v>168.8185907504172</v>
+        <v>168.8185907504171</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>105.0529957315734</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>133.7477081360114</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -3117,7 +3117,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668449</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.503222277870632</v>
+        <v>1.50322227787052</v>
       </c>
       <c r="U33" t="n">
-        <v>23.76108100089751</v>
+        <v>23.7610810008974</v>
       </c>
       <c r="V33" t="n">
-        <v>27.18194424736959</v>
+        <v>27.18194424736947</v>
       </c>
       <c r="W33" t="n">
-        <v>53.23760690897893</v>
+        <v>53.23760690897882</v>
       </c>
       <c r="X33" t="n">
-        <v>3.845937771437946</v>
+        <v>3.845937771437832</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.917309465992957</v>
+        <v>9.917309465992844</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096065</v>
+        <v>21.96844096064989</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29393777257516</v>
+        <v>10.29393777257505</v>
       </c>
       <c r="U34" t="n">
-        <v>75.18957207913233</v>
+        <v>75.18957207913222</v>
       </c>
       <c r="V34" t="n">
-        <v>31.64203851641724</v>
+        <v>31.64203851641713</v>
       </c>
       <c r="W34" t="n">
-        <v>76.84373042130267</v>
+        <v>76.84373042130255</v>
       </c>
       <c r="X34" t="n">
-        <v>8.45247874020987</v>
+        <v>8.452478740209756</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.674296146135759</v>
+        <v>3.674296146135646</v>
       </c>
     </row>
     <row r="35">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -3351,7 +3351,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8.295551079272022</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.45818464705461</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>65.67665828419277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>65.67665828419277</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>132.4169473543718</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668449</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3743,10 +3743,10 @@
         <v>109.2086824627816</v>
       </c>
       <c r="D41" t="n">
-        <v>96.7753447238301</v>
+        <v>96.77534472383007</v>
       </c>
       <c r="E41" t="n">
-        <v>130.482097143239</v>
+        <v>130.4820971432389</v>
       </c>
       <c r="F41" t="n">
         <v>162.2024347216163</v>
@@ -3755,7 +3755,7 @@
         <v>177.8410220272076</v>
       </c>
       <c r="H41" t="n">
-        <v>106.0211424556042</v>
+        <v>106.0211424556041</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.15369969288907</v>
+        <v>9.153699692889042</v>
       </c>
       <c r="V41" t="n">
-        <v>79.88296869075484</v>
+        <v>79.88296869075481</v>
       </c>
       <c r="W41" t="n">
-        <v>96.89964890736971</v>
+        <v>96.89964890736968</v>
       </c>
       <c r="X41" t="n">
         <v>118.7858993763089</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668449</v>
+        <v>5.283080164189648</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>35.9642456973524</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>25.70776865861441</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.65973382876781</v>
+        <v>47.65973382876778</v>
       </c>
       <c r="V43" t="n">
-        <v>4.112200266052724</v>
+        <v>4.112200266052696</v>
       </c>
       <c r="W43" t="n">
-        <v>49.31389217093815</v>
+        <v>49.31389217093812</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>109.2086824627816</v>
       </c>
       <c r="D44" t="n">
-        <v>96.7753447238301</v>
+        <v>96.77534472383007</v>
       </c>
       <c r="E44" t="n">
-        <v>130.482097143239</v>
+        <v>130.4820971432389</v>
       </c>
       <c r="F44" t="n">
         <v>162.2024347216163</v>
@@ -3992,7 +3992,7 @@
         <v>177.8410220272076</v>
       </c>
       <c r="H44" t="n">
-        <v>106.0211424556042</v>
+        <v>106.0211424556041</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.15369969288907</v>
+        <v>9.153699692889042</v>
       </c>
       <c r="V44" t="n">
-        <v>79.88296869075484</v>
+        <v>79.88296869075481</v>
       </c>
       <c r="W44" t="n">
-        <v>96.89964890736971</v>
+        <v>96.89964890736968</v>
       </c>
       <c r="X44" t="n">
         <v>118.7858993763089</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>39.96888962557846</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -4065,7 +4065,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>22.04183434784088</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668431</v>
+        <v>6.846506480668474</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.70776865861441</v>
+        <v>25.70776865861438</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.65973382876781</v>
+        <v>47.65973382876778</v>
       </c>
       <c r="V46" t="n">
-        <v>4.112200266052724</v>
+        <v>4.112200266052696</v>
       </c>
       <c r="W46" t="n">
-        <v>49.31389217093815</v>
+        <v>49.31389217093812</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>349.7499986229311</v>
+        <v>28.85088843209811</v>
       </c>
       <c r="C11" t="n">
-        <v>176.1380308889678</v>
+        <v>28.85088843209811</v>
       </c>
       <c r="D11" t="n">
-        <v>15.08499016404653</v>
+        <v>28.85088843209811</v>
       </c>
       <c r="E11" t="n">
-        <v>15.08499016404653</v>
+        <v>28.85088843209811</v>
       </c>
       <c r="F11" t="n">
         <v>15.08499016404653</v>
@@ -5042,49 +5042,49 @@
         <v>115.6457740567086</v>
       </c>
       <c r="K11" t="n">
-        <v>285.5745218649279</v>
+        <v>183.4644117113179</v>
       </c>
       <c r="L11" t="n">
-        <v>332.3478600952219</v>
+        <v>370.1411649913937</v>
       </c>
       <c r="M11" t="n">
-        <v>413.2681708183737</v>
+        <v>556.8179182714695</v>
       </c>
       <c r="N11" t="n">
-        <v>488.6554207516119</v>
+        <v>632.2051682047077</v>
       </c>
       <c r="O11" t="n">
-        <v>522.9321043850416</v>
+        <v>666.4818518381373</v>
       </c>
       <c r="P11" t="n">
-        <v>684.5852410629756</v>
+        <v>666.4818518381373</v>
       </c>
       <c r="Q11" t="n">
-        <v>754.2495082023265</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R11" t="n">
-        <v>737.5517418112278</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="S11" t="n">
-        <v>737.5517418112278</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="T11" t="n">
-        <v>737.5517418112278</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="U11" t="n">
-        <v>665.0054132387723</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="V11" t="n">
-        <v>665.0054132387723</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="W11" t="n">
-        <v>503.826812732498</v>
+        <v>593.0709076960519</v>
       </c>
       <c r="X11" t="n">
-        <v>503.826812732498</v>
+        <v>409.7849834837781</v>
       </c>
       <c r="Y11" t="n">
-        <v>503.826812732498</v>
+        <v>219.3179359579381</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.35437081744588</v>
+        <v>237.7820871002018</v>
       </c>
       <c r="C12" t="n">
-        <v>68.07305546410171</v>
+        <v>228.5007717468576</v>
       </c>
       <c r="D12" t="n">
-        <v>68.07305546410171</v>
+        <v>228.5007717468576</v>
       </c>
       <c r="E12" t="n">
-        <v>68.07305546410171</v>
+        <v>228.5007717468576</v>
       </c>
       <c r="F12" t="n">
         <v>68.07305546410171</v>
@@ -5121,49 +5121,49 @@
         <v>15.08499016404653</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635123</v>
+        <v>53.07705719635111</v>
       </c>
       <c r="L12" t="n">
-        <v>170.4486221681696</v>
+        <v>170.4486221681694</v>
       </c>
       <c r="M12" t="n">
-        <v>352.1703666486677</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N12" t="n">
-        <v>538.8471199287435</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O12" t="n">
-        <v>670.5904072110305</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P12" t="n">
-        <v>754.2495082023265</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.3338450905402</v>
+        <v>747.33384509054</v>
       </c>
       <c r="R12" t="n">
-        <v>747.3338450905402</v>
+        <v>747.33384509054</v>
       </c>
       <c r="S12" t="n">
-        <v>564.4178992645629</v>
+        <v>672.5886613744822</v>
       </c>
       <c r="T12" t="n">
-        <v>373.950851738723</v>
+        <v>635.5780051913023</v>
       </c>
       <c r="U12" t="n">
-        <v>314.457509976728</v>
+        <v>576.0846634293074</v>
       </c>
       <c r="V12" t="n">
-        <v>251.5087507940542</v>
+        <v>513.1359042466336</v>
       </c>
       <c r="W12" t="n">
-        <v>162.2411404380376</v>
+        <v>322.6688567207936</v>
       </c>
       <c r="X12" t="n">
-        <v>122.8641049684261</v>
+        <v>283.2918212511821</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.35437081744588</v>
+        <v>237.7820871002018</v>
       </c>
     </row>
     <row r="13">
@@ -5179,43 +5179,43 @@
         <v>15.08499016404653</v>
       </c>
       <c r="D13" t="n">
-        <v>47.90051924715257</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E13" t="n">
-        <v>84.18749227835946</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F13" t="n">
-        <v>84.18749227835946</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G13" t="n">
-        <v>84.18749227835946</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H13" t="n">
-        <v>84.18749227835946</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I13" t="n">
-        <v>84.18749227835946</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J13" t="n">
-        <v>84.18749227835946</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K13" t="n">
-        <v>84.18749227835946</v>
+        <v>125.2889991250442</v>
       </c>
       <c r="L13" t="n">
-        <v>228.9257317336174</v>
+        <v>270.0272385803022</v>
       </c>
       <c r="M13" t="n">
-        <v>228.9257317336174</v>
+        <v>421.6322853325026</v>
       </c>
       <c r="N13" t="n">
-        <v>228.9257317336174</v>
+        <v>519.2459201612859</v>
       </c>
       <c r="O13" t="n">
-        <v>368.3890807527051</v>
+        <v>519.2459201612859</v>
       </c>
       <c r="P13" t="n">
-        <v>487.0596679625521</v>
+        <v>519.2459201612859</v>
       </c>
       <c r="Q13" t="n">
         <v>519.2459201612859</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.0190852157266</v>
+        <v>262.3606271573618</v>
       </c>
       <c r="C14" t="n">
-        <v>396.0190852157266</v>
+        <v>262.3606271573618</v>
       </c>
       <c r="D14" t="n">
-        <v>396.0190852157266</v>
+        <v>262.3606271573618</v>
       </c>
       <c r="E14" t="n">
-        <v>396.0190852157266</v>
+        <v>262.3606271573618</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5520376898866</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="G14" t="n">
-        <v>15.08499016404653</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="H14" t="n">
         <v>15.08499016404653</v>
@@ -5279,19 +5279,19 @@
         <v>115.6457740567086</v>
       </c>
       <c r="K14" t="n">
-        <v>285.5745218649278</v>
+        <v>115.6457740567086</v>
       </c>
       <c r="L14" t="n">
-        <v>332.3478600952218</v>
+        <v>162.4191122870026</v>
       </c>
       <c r="M14" t="n">
-        <v>413.2681708183736</v>
+        <v>243.3394230101544</v>
       </c>
       <c r="N14" t="n">
-        <v>488.6554207516118</v>
+        <v>318.7266729433926</v>
       </c>
       <c r="O14" t="n">
-        <v>522.9321043850415</v>
+        <v>504.8287151602038</v>
       </c>
       <c r="P14" t="n">
         <v>666.4818518381377</v>
@@ -5303,25 +5303,25 @@
         <v>737.5517418112277</v>
       </c>
       <c r="S14" t="n">
-        <v>737.5517418112277</v>
+        <v>687.8752890379865</v>
       </c>
       <c r="T14" t="n">
-        <v>737.5517418112277</v>
+        <v>643.2947222090419</v>
       </c>
       <c r="U14" t="n">
-        <v>737.5517418112277</v>
+        <v>643.2947222090419</v>
       </c>
       <c r="V14" t="n">
-        <v>737.5517418112277</v>
+        <v>643.2947222090419</v>
       </c>
       <c r="W14" t="n">
-        <v>737.5517418112277</v>
+        <v>643.2947222090419</v>
       </c>
       <c r="X14" t="n">
-        <v>554.265817598954</v>
+        <v>643.2947222090419</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.0190852157266</v>
+        <v>452.8276746832018</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.35437081744594</v>
+        <v>388.381380682332</v>
       </c>
       <c r="C15" t="n">
-        <v>68.07305546410171</v>
+        <v>379.1000653289877</v>
       </c>
       <c r="D15" t="n">
-        <v>68.07305546410171</v>
+        <v>218.3199490900195</v>
       </c>
       <c r="E15" t="n">
-        <v>68.07305546410171</v>
+        <v>218.3199490900195</v>
       </c>
       <c r="F15" t="n">
-        <v>68.07305546410171</v>
+        <v>218.3199490900195</v>
       </c>
       <c r="G15" t="n">
         <v>68.07305546410171</v>
@@ -5367,7 +5367,7 @@
         <v>352.1703666486677</v>
       </c>
       <c r="N15" t="n">
-        <v>538.8471199287435</v>
+        <v>538.8471199287436</v>
       </c>
       <c r="O15" t="n">
         <v>670.5904072110305</v>
@@ -5382,25 +5382,25 @@
         <v>747.3338450905402</v>
       </c>
       <c r="S15" t="n">
-        <v>556.8667975647002</v>
+        <v>733.9421253243617</v>
       </c>
       <c r="T15" t="n">
-        <v>501.4691400818895</v>
+        <v>696.9314691411817</v>
       </c>
       <c r="U15" t="n">
-        <v>441.9757983198945</v>
+        <v>637.4381273791867</v>
       </c>
       <c r="V15" t="n">
-        <v>251.5087507940544</v>
+        <v>574.4893681965127</v>
       </c>
       <c r="W15" t="n">
-        <v>162.2411404380378</v>
+        <v>485.221757840496</v>
       </c>
       <c r="X15" t="n">
-        <v>122.8641049684262</v>
+        <v>433.8911148333123</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.35437081744594</v>
+        <v>388.381380682332</v>
       </c>
     </row>
     <row r="16">
@@ -5416,67 +5416,67 @@
         <v>15.08499016404653</v>
       </c>
       <c r="D16" t="n">
-        <v>15.08499016404653</v>
+        <v>47.90051924715249</v>
       </c>
       <c r="E16" t="n">
-        <v>15.08499016404653</v>
+        <v>84.1874922783593</v>
       </c>
       <c r="F16" t="n">
-        <v>15.08499016404653</v>
+        <v>123.1962317134067</v>
       </c>
       <c r="G16" t="n">
-        <v>15.08499016404653</v>
+        <v>123.1962317134067</v>
       </c>
       <c r="H16" t="n">
-        <v>15.08499016404653</v>
+        <v>135.5777575540143</v>
       </c>
       <c r="I16" t="n">
-        <v>15.08499016404653</v>
+        <v>135.5777575540143</v>
       </c>
       <c r="J16" t="n">
-        <v>15.08499016404653</v>
+        <v>193.0974486206258</v>
       </c>
       <c r="K16" t="n">
-        <v>15.08499016404653</v>
+        <v>303.3014575816234</v>
       </c>
       <c r="L16" t="n">
-        <v>17.34926113099422</v>
+        <v>379.782571142199</v>
       </c>
       <c r="M16" t="n">
-        <v>168.9543078831946</v>
+        <v>379.782571142199</v>
       </c>
       <c r="N16" t="n">
-        <v>329.168539406959</v>
+        <v>379.782571142199</v>
       </c>
       <c r="O16" t="n">
-        <v>468.6318884260467</v>
+        <v>519.2459201612866</v>
       </c>
       <c r="P16" t="n">
-        <v>468.6318884260467</v>
+        <v>519.2459201612866</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612863</v>
+        <v>519.2459201612866</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577492</v>
+        <v>493.8989154577495</v>
       </c>
       <c r="S16" t="n">
-        <v>436.2163212111558</v>
+        <v>436.216321211156</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272642</v>
+        <v>390.3261544272643</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791735</v>
+        <v>278.8848418791736</v>
       </c>
       <c r="V16" t="n">
-        <v>211.4309369701888</v>
+        <v>211.4309369701889</v>
       </c>
       <c r="W16" t="n">
-        <v>98.31875740980479</v>
+        <v>98.31875740980485</v>
       </c>
       <c r="X16" t="n">
-        <v>54.288650254565</v>
+        <v>54.28865025456503</v>
       </c>
       <c r="Y16" t="n">
         <v>15.08499016404653</v>
@@ -5510,37 +5510,37 @@
         <v>15.08499016404653</v>
       </c>
       <c r="I17" t="n">
-        <v>15.08499016404653</v>
+        <v>70.94848926897384</v>
       </c>
       <c r="J17" t="n">
-        <v>201.7617434441223</v>
+        <v>139.9871548196104</v>
       </c>
       <c r="K17" t="n">
-        <v>201.7617434441223</v>
+        <v>139.9871548196104</v>
       </c>
       <c r="L17" t="n">
-        <v>248.5350816744164</v>
+        <v>186.7604930499044</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4553923975682</v>
+        <v>267.6808037730563</v>
       </c>
       <c r="N17" t="n">
-        <v>404.8426423308064</v>
+        <v>343.0680537062944</v>
       </c>
       <c r="O17" t="n">
-        <v>439.1193259642361</v>
+        <v>377.344737339724</v>
       </c>
       <c r="P17" t="n">
-        <v>439.1193259642361</v>
+        <v>377.344737339724</v>
       </c>
       <c r="Q17" t="n">
-        <v>625.7960792443118</v>
+        <v>564.0214906197998</v>
       </c>
       <c r="R17" t="n">
-        <v>638.2320701135822</v>
+        <v>564.0214906197998</v>
       </c>
       <c r="S17" t="n">
-        <v>707.4481717933594</v>
+        <v>633.237592299577</v>
       </c>
       <c r="T17" t="n">
         <v>707.4481717933594</v>
@@ -5549,7 +5549,7 @@
         <v>754.2495082023265</v>
       </c>
       <c r="V17" t="n">
-        <v>730.5573952557701</v>
+        <v>730.55739525577</v>
       </c>
       <c r="W17" t="n">
         <v>689.6767164338451</v>
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>68.07305546410171</v>
+        <v>568.7979921636052</v>
       </c>
       <c r="C18" t="n">
-        <v>68.07305546410171</v>
+        <v>379.3857178965688</v>
       </c>
       <c r="D18" t="n">
-        <v>68.07305546410171</v>
+        <v>218.6056016576006</v>
       </c>
       <c r="E18" t="n">
-        <v>68.07305546410171</v>
+        <v>45.04239777901506</v>
       </c>
       <c r="F18" t="n">
-        <v>68.07305546410171</v>
+        <v>45.04239777901506</v>
       </c>
       <c r="G18" t="n">
-        <v>68.07305546410171</v>
+        <v>45.04239777901506</v>
       </c>
       <c r="H18" t="n">
-        <v>68.07305546410171</v>
+        <v>45.04239777901506</v>
       </c>
       <c r="I18" t="n">
-        <v>68.07305546410171</v>
+        <v>45.04239777901506</v>
       </c>
       <c r="J18" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635123</v>
+        <v>53.07705719635133</v>
       </c>
       <c r="L18" t="n">
-        <v>170.4486221681696</v>
+        <v>170.4486221681697</v>
       </c>
       <c r="M18" t="n">
-        <v>352.1703666486677</v>
+        <v>352.1703666486678</v>
       </c>
       <c r="N18" t="n">
-        <v>538.8471199287435</v>
+        <v>538.8471199287436</v>
       </c>
       <c r="O18" t="n">
         <v>670.5904072110305</v>
@@ -5625,19 +5625,19 @@
         <v>747.3338450905402</v>
       </c>
       <c r="U18" t="n">
-        <v>556.8667975647002</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="V18" t="n">
-        <v>366.3997500388601</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="W18" t="n">
-        <v>258.5401029899417</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="X18" t="n">
-        <v>258.5401029899417</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="Y18" t="n">
-        <v>68.07305546410171</v>
+        <v>747.3338450905402</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.5335379340415</v>
+        <v>463.5335379340406</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844278</v>
+        <v>410.2194918844268</v>
       </c>
       <c r="D20" t="n">
-        <v>369.464372843856</v>
+        <v>369.4643728438552</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372146</v>
+        <v>294.6620291372137</v>
       </c>
       <c r="F20" t="n">
-        <v>187.8189404019092</v>
+        <v>187.8189404019085</v>
       </c>
       <c r="G20" t="n">
-        <v>65.17929883267294</v>
+        <v>65.179298832673</v>
       </c>
       <c r="H20" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="I20" t="n">
-        <v>70.9484892689739</v>
+        <v>70.94848926897384</v>
       </c>
       <c r="J20" t="n">
-        <v>70.9484892689739</v>
+        <v>225.1253958967711</v>
       </c>
       <c r="K20" t="n">
-        <v>70.9484892689739</v>
+        <v>225.1253958967711</v>
       </c>
       <c r="L20" t="n">
-        <v>117.7218274992679</v>
+        <v>271.8987341270652</v>
       </c>
       <c r="M20" t="n">
-        <v>198.6421382224198</v>
+        <v>352.819044850217</v>
       </c>
       <c r="N20" t="n">
-        <v>274.029388155658</v>
+        <v>428.2062947834551</v>
       </c>
       <c r="O20" t="n">
-        <v>308.3060717890876</v>
+        <v>462.4829784168847</v>
       </c>
       <c r="P20" t="n">
-        <v>322.6075615457758</v>
+        <v>462.4829784168847</v>
       </c>
       <c r="Q20" t="n">
-        <v>509.2843148258516</v>
+        <v>462.4829784168847</v>
       </c>
       <c r="R20" t="n">
-        <v>610.8228270287667</v>
+        <v>564.0214906197998</v>
       </c>
       <c r="S20" t="n">
-        <v>680.0389287085441</v>
+        <v>633.237592299577</v>
       </c>
       <c r="T20" t="n">
-        <v>754.2495082023265</v>
+        <v>707.4481717933594</v>
       </c>
       <c r="U20" t="n">
         <v>754.2495082023265</v>
       </c>
       <c r="V20" t="n">
-        <v>730.5573952557701</v>
+        <v>730.5573952557697</v>
       </c>
       <c r="W20" t="n">
-        <v>689.6767164338453</v>
+        <v>689.6767164338446</v>
       </c>
       <c r="X20" t="n">
-        <v>626.6887139059211</v>
+        <v>626.6887139059204</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.9705567075487</v>
+        <v>540.9705567075479</v>
       </c>
     </row>
     <row r="21">
@@ -5820,28 +5820,28 @@
         <v>63.15053442319416</v>
       </c>
       <c r="G21" t="n">
-        <v>15.08499016404653</v>
+        <v>63.15053442319416</v>
       </c>
       <c r="H21" t="n">
-        <v>15.08499016404653</v>
+        <v>63.15053442319416</v>
       </c>
       <c r="I21" t="n">
-        <v>15.08499016404653</v>
+        <v>63.15053442319416</v>
       </c>
       <c r="J21" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635121</v>
+        <v>53.07705719635133</v>
       </c>
       <c r="L21" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681697</v>
       </c>
       <c r="M21" t="n">
-        <v>352.1703666486677</v>
+        <v>352.1703666486678</v>
       </c>
       <c r="N21" t="n">
-        <v>538.8471199287435</v>
+        <v>538.8471199287436</v>
       </c>
       <c r="O21" t="n">
         <v>670.5904072110305</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340407</v>
+        <v>463.533537934042</v>
       </c>
       <c r="C23" t="n">
-        <v>410.219491884427</v>
+        <v>410.2194918844282</v>
       </c>
       <c r="D23" t="n">
-        <v>369.4643728438552</v>
+        <v>369.4643728438563</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6620291372138</v>
+        <v>294.6620291372149</v>
       </c>
       <c r="F23" t="n">
-        <v>187.8189404019084</v>
+        <v>187.8189404019095</v>
       </c>
       <c r="G23" t="n">
-        <v>65.17929883267291</v>
+        <v>65.179298832673</v>
       </c>
       <c r="H23" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="I23" t="n">
-        <v>15.08499016404652</v>
+        <v>70.94848926897387</v>
       </c>
       <c r="J23" t="n">
-        <v>201.7617434441221</v>
+        <v>257.6252425490499</v>
       </c>
       <c r="K23" t="n">
-        <v>201.7617434441221</v>
+        <v>257.6252425490499</v>
       </c>
       <c r="L23" t="n">
-        <v>248.5350816744162</v>
+        <v>304.3985807793439</v>
       </c>
       <c r="M23" t="n">
-        <v>329.455392397568</v>
+        <v>385.3188915024957</v>
       </c>
       <c r="N23" t="n">
-        <v>404.8426423308062</v>
+        <v>460.7061414357339</v>
       </c>
       <c r="O23" t="n">
-        <v>439.1193259642358</v>
+        <v>494.9828250691635</v>
       </c>
       <c r="P23" t="n">
-        <v>439.1193259642358</v>
+        <v>494.9828250691635</v>
       </c>
       <c r="Q23" t="n">
-        <v>625.7960792443115</v>
+        <v>564.0214906198005</v>
       </c>
       <c r="R23" t="n">
-        <v>727.3345914472266</v>
+        <v>564.0214906198005</v>
       </c>
       <c r="S23" t="n">
-        <v>727.3345914472266</v>
+        <v>633.2375922995777</v>
       </c>
       <c r="T23" t="n">
-        <v>727.3345914472266</v>
+        <v>707.4481717933601</v>
       </c>
       <c r="U23" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023272</v>
       </c>
       <c r="V23" t="n">
-        <v>730.5573952557695</v>
+        <v>730.5573952557706</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338446</v>
+        <v>689.6767164338457</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059204</v>
+        <v>626.6887139059215</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.9705567075479</v>
+        <v>540.9705567075491</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>418.2654459701062</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="C24" t="n">
-        <v>228.8531717030699</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="D24" t="n">
-        <v>68.07305546410169</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="E24" t="n">
-        <v>68.07305546410169</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="F24" t="n">
-        <v>68.07305546410169</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="G24" t="n">
-        <v>68.07305546410169</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="H24" t="n">
-        <v>68.07305546410169</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="I24" t="n">
-        <v>68.07305546410169</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="J24" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="K24" t="n">
-        <v>53.07705719635121</v>
+        <v>53.07705719635123</v>
       </c>
       <c r="L24" t="n">
         <v>170.4486221681695</v>
       </c>
       <c r="M24" t="n">
-        <v>352.1703666486677</v>
+        <v>352.1703666486683</v>
       </c>
       <c r="N24" t="n">
-        <v>538.8471199287434</v>
+        <v>538.8471199287443</v>
       </c>
       <c r="O24" t="n">
-        <v>670.5904072110304</v>
+        <v>670.5904072110312</v>
       </c>
       <c r="P24" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023272</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.3338450905395</v>
+        <v>747.3338450905409</v>
       </c>
       <c r="R24" t="n">
-        <v>747.3338450905395</v>
+        <v>747.3338450905409</v>
       </c>
       <c r="S24" t="n">
-        <v>747.3338450905395</v>
+        <v>747.3338450905409</v>
       </c>
       <c r="T24" t="n">
-        <v>747.3338450905395</v>
+        <v>747.3338450905409</v>
       </c>
       <c r="U24" t="n">
-        <v>747.3338450905395</v>
+        <v>556.8667975647006</v>
       </c>
       <c r="V24" t="n">
-        <v>747.3338450905395</v>
+        <v>366.3997500388604</v>
       </c>
       <c r="W24" t="n">
-        <v>747.3338450905395</v>
+        <v>366.3997500388604</v>
       </c>
       <c r="X24" t="n">
-        <v>747.3338450905395</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="Y24" t="n">
-        <v>596.8012988970413</v>
+        <v>176.5146922106384</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="C25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="D25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="E25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="F25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="G25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="H25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="I25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="J25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="K25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="L25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="M25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="N25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="O25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="P25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="R25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="S25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="T25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="U25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="V25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="W25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="X25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404654</v>
       </c>
     </row>
     <row r="26">
@@ -6203,25 +6203,25 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792732</v>
+        <v>882.8924400792728</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962483</v>
+        <v>757.331649196248</v>
       </c>
       <c r="E26" t="n">
-        <v>597.723633647154</v>
+        <v>597.7236336471535</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693956</v>
+        <v>406.074873069395</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6295596577065</v>
+        <v>198.629559657706</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662748</v>
+        <v>63.72957914662749</v>
       </c>
       <c r="I26" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J26" t="n">
         <v>171.2683996847217</v>
@@ -6230,43 +6230,43 @@
         <v>375.9831015629836</v>
       </c>
       <c r="L26" t="n">
-        <v>634.08874669463</v>
+        <v>634.0887466946299</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191342</v>
+        <v>926.3413643191341</v>
       </c>
       <c r="N26" t="n">
-        <v>1213.060921153726</v>
+        <v>1213.060921153725</v>
       </c>
       <c r="O26" t="n">
         <v>1458.669911688507</v>
       </c>
       <c r="P26" t="n">
-        <v>1655.109002436484</v>
+        <v>1655.109002436483</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.662612870716</v>
+        <v>1777.662612870715</v>
       </c>
       <c r="R26" t="n">
-        <v>1796.083086100843</v>
+        <v>1796.083086100842</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.898883169498</v>
+        <v>1781.898883169497</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.81056618245</v>
+        <v>1772.810566182449</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.756487451891</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.258702662881</v>
+        <v>1627.25870266288</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.572351998503</v>
+        <v>1501.572351998502</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y26" t="n">
         <v>1183.2548485873</v>
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>665.7913932092065</v>
+        <v>665.7913932092059</v>
       </c>
       <c r="C27" t="n">
         <v>530.6926981223265</v>
@@ -6291,64 +6291,64 @@
         <v>196.3493780047727</v>
       </c>
       <c r="F27" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G27" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H27" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I27" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J27" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K27" t="n">
-        <v>73.91372875432154</v>
+        <v>73.91372875432153</v>
       </c>
       <c r="L27" t="n">
         <v>191.2852937261399</v>
       </c>
       <c r="M27" t="n">
-        <v>373.0070382066381</v>
+        <v>373.007038206638</v>
       </c>
       <c r="N27" t="n">
-        <v>577.9583061004879</v>
+        <v>577.9583061004878</v>
       </c>
       <c r="O27" t="n">
-        <v>709.7015933827749</v>
+        <v>709.7015933827747</v>
       </c>
       <c r="P27" t="n">
-        <v>793.3606943740709</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.4450312622846</v>
+        <v>786.4450312622844</v>
       </c>
       <c r="R27" t="n">
-        <v>786.4450312622846</v>
+        <v>786.4450312622844</v>
       </c>
       <c r="S27" t="n">
-        <v>786.4450312622846</v>
+        <v>786.4450312622844</v>
       </c>
       <c r="T27" t="n">
-        <v>784.9266249210011</v>
+        <v>784.9266249210009</v>
       </c>
       <c r="U27" t="n">
-        <v>760.9255330009026</v>
+        <v>760.9255330009024</v>
       </c>
       <c r="V27" t="n">
-        <v>733.4690236601253</v>
+        <v>733.469023660125</v>
       </c>
       <c r="W27" t="n">
-        <v>679.6936631460053</v>
+        <v>679.6936631460048</v>
       </c>
       <c r="X27" t="n">
-        <v>675.8088775182903</v>
+        <v>675.8088775182897</v>
       </c>
       <c r="Y27" t="n">
-        <v>665.7913932092065</v>
+        <v>665.7913932092059</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C28" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D28" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E28" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F28" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G28" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H28" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I28" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J28" t="n">
-        <v>128.2273068586712</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K28" t="n">
-        <v>266.289838122444</v>
+        <v>180.9116247530572</v>
       </c>
       <c r="L28" t="n">
-        <v>266.289838122444</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="M28" t="n">
-        <v>266.289838122444</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="N28" t="n">
-        <v>266.289838122444</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="O28" t="n">
-        <v>266.289838122444</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="P28" t="n">
-        <v>266.289838122444</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.289838122444</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="R28" t="n">
-        <v>266.289838122444</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="S28" t="n">
-        <v>244.099493717747</v>
+        <v>244.0994937177472</v>
       </c>
       <c r="T28" t="n">
-        <v>233.701576775752</v>
+        <v>233.7015767757521</v>
       </c>
       <c r="U28" t="n">
-        <v>157.7525140695577</v>
+        <v>157.7525140695578</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7908590024696</v>
+        <v>125.7908590024697</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398208</v>
+        <v>48.17092928398212</v>
       </c>
       <c r="X28" t="n">
-        <v>39.6330719706388</v>
+        <v>39.63307197063882</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1021.01215797134</v>
+        <v>1021.012157971339</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792733</v>
+        <v>882.8924400792727</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962486</v>
+        <v>757.3316491962479</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471542</v>
+        <v>597.7236336471535</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693959</v>
+        <v>406.0748730693952</v>
       </c>
       <c r="G29" t="n">
-        <v>198.629559657707</v>
+        <v>198.6295596577062</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662766</v>
+        <v>63.72957914662675</v>
       </c>
       <c r="I29" t="n">
         <v>35.92166172201685</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2683996847218</v>
+        <v>171.2683996847217</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9831015629838</v>
+        <v>375.9831015629837</v>
       </c>
       <c r="L29" t="n">
         <v>634.0887466946303</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191346</v>
+        <v>926.3413643191345</v>
       </c>
       <c r="N29" t="n">
         <v>1213.060921153725</v>
@@ -6485,7 +6485,7 @@
         <v>1777.662612870716</v>
       </c>
       <c r="R29" t="n">
-        <v>1796.083086100843</v>
+        <v>1796.083086100842</v>
       </c>
       <c r="S29" t="n">
         <v>1781.898883169497</v>
@@ -6494,19 +6494,19 @@
         <v>1772.810566182449</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.75648745189</v>
+        <v>1735.756487451889</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.258702662881</v>
+        <v>1627.25870266288</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.572351998503</v>
+        <v>1501.572351998502</v>
       </c>
       <c r="X29" t="n">
         <v>1353.778677628125</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.2548485873</v>
+        <v>1183.254848587299</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>665.7913932092069</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C30" t="n">
-        <v>530.6926981223265</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D30" t="n">
-        <v>369.9125818833583</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E30" t="n">
-        <v>196.3493780047727</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F30" t="n">
         <v>35.92166172201685</v>
@@ -6549,43 +6549,43 @@
         <v>191.2852937261399</v>
       </c>
       <c r="M30" t="n">
-        <v>373.0070382066381</v>
+        <v>373.007038206638</v>
       </c>
       <c r="N30" t="n">
-        <v>577.9583061004879</v>
+        <v>577.9583061004878</v>
       </c>
       <c r="O30" t="n">
-        <v>709.7015933827749</v>
+        <v>709.7015933827747</v>
       </c>
       <c r="P30" t="n">
-        <v>793.3606943740709</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.4450312622846</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="R30" t="n">
-        <v>786.4450312622846</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="S30" t="n">
-        <v>786.4450312622846</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="T30" t="n">
-        <v>784.9266249210012</v>
+        <v>791.8422880327873</v>
       </c>
       <c r="U30" t="n">
-        <v>760.9255330009029</v>
+        <v>767.841196112689</v>
       </c>
       <c r="V30" t="n">
-        <v>733.4690236601257</v>
+        <v>740.3846867719117</v>
       </c>
       <c r="W30" t="n">
-        <v>679.6936631460056</v>
+        <v>481.0703491699928</v>
       </c>
       <c r="X30" t="n">
-        <v>675.8088775182906</v>
+        <v>261.5623547866892</v>
       </c>
       <c r="Y30" t="n">
-        <v>665.7913932092069</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="31">
@@ -6601,67 +6601,67 @@
         <v>35.92166172201685</v>
       </c>
       <c r="D31" t="n">
-        <v>74.25473760545292</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E31" t="n">
-        <v>145.3276647067026</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F31" t="n">
-        <v>219.1223582117929</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G31" t="n">
-        <v>219.1223582117929</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H31" t="n">
-        <v>266.2898381224434</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I31" t="n">
-        <v>266.2898381224434</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J31" t="n">
-        <v>266.2898381224434</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K31" t="n">
-        <v>266.2898381224434</v>
+        <v>180.9116247530573</v>
       </c>
       <c r="L31" t="n">
-        <v>266.2898381224434</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="M31" t="n">
-        <v>266.2898381224434</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="N31" t="n">
-        <v>266.2898381224434</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="O31" t="n">
-        <v>266.2898381224434</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="P31" t="n">
-        <v>266.2898381224434</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.2898381224434</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="R31" t="n">
-        <v>266.2898381224434</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="S31" t="n">
-        <v>244.0994937177465</v>
+        <v>244.0994937177467</v>
       </c>
       <c r="T31" t="n">
-        <v>233.7015767757515</v>
+        <v>233.7015767757517</v>
       </c>
       <c r="U31" t="n">
-        <v>157.7525140695573</v>
+        <v>157.7525140695575</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7908590024693</v>
+        <v>125.7908590024694</v>
       </c>
       <c r="W31" t="n">
-        <v>48.17092928398191</v>
+        <v>48.17092928398196</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063872</v>
+        <v>39.63307197063875</v>
       </c>
       <c r="Y31" t="n">
         <v>35.92166172201685</v>
@@ -6677,61 +6677,61 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792732</v>
+        <v>882.8924400792733</v>
       </c>
       <c r="D32" t="n">
-        <v>757.3316491962483</v>
+        <v>757.3316491962486</v>
       </c>
       <c r="E32" t="n">
-        <v>597.723633647154</v>
+        <v>597.7236336471542</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693955</v>
+        <v>406.0748730693959</v>
       </c>
       <c r="G32" t="n">
         <v>198.629559657707</v>
       </c>
       <c r="H32" t="n">
-        <v>63.72957914662748</v>
+        <v>63.72957914662737</v>
       </c>
       <c r="I32" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J32" t="n">
-        <v>171.2683996847217</v>
+        <v>171.2683996847206</v>
       </c>
       <c r="K32" t="n">
-        <v>375.9831015629837</v>
+        <v>375.9831015629829</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946301</v>
+        <v>634.0887466946297</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191343</v>
+        <v>926.3413643191338</v>
       </c>
       <c r="N32" t="n">
-        <v>1213.060921153725</v>
+        <v>1213.060921153724</v>
       </c>
       <c r="O32" t="n">
         <v>1458.669911688507</v>
       </c>
       <c r="P32" t="n">
-        <v>1655.109002436484</v>
+        <v>1655.109002436483</v>
       </c>
       <c r="Q32" t="n">
-        <v>1777.662612870716</v>
+        <v>1777.662612870715</v>
       </c>
       <c r="R32" t="n">
-        <v>1796.083086100843</v>
+        <v>1796.083086100842</v>
       </c>
       <c r="S32" t="n">
-        <v>1781.898883169498</v>
+        <v>1781.898883169497</v>
       </c>
       <c r="T32" t="n">
-        <v>1772.81056618245</v>
+        <v>1772.810566182449</v>
       </c>
       <c r="U32" t="n">
-        <v>1735.756487451891</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V32" t="n">
         <v>1627.258702662881</v>
@@ -6740,7 +6740,7 @@
         <v>1501.572351998503</v>
       </c>
       <c r="X32" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y32" t="n">
         <v>1183.2548485873</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>559.6772561066069</v>
+        <v>665.7913932092067</v>
       </c>
       <c r="C33" t="n">
-        <v>370.2649818395706</v>
+        <v>530.6926981223265</v>
       </c>
       <c r="D33" t="n">
-        <v>209.4848656006024</v>
+        <v>369.9125818833583</v>
       </c>
       <c r="E33" t="n">
-        <v>35.92166172201685</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="F33" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G33" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H33" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I33" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J33" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K33" t="n">
-        <v>73.91372875432158</v>
+        <v>73.91372875432153</v>
       </c>
       <c r="L33" t="n">
-        <v>191.28529372614</v>
+        <v>191.2852937261399</v>
       </c>
       <c r="M33" t="n">
-        <v>373.0070382066382</v>
+        <v>373.007038206638</v>
       </c>
       <c r="N33" t="n">
-        <v>577.958306100488</v>
+        <v>577.9583061004878</v>
       </c>
       <c r="O33" t="n">
-        <v>709.7015933827751</v>
+        <v>709.7015933827747</v>
       </c>
       <c r="P33" t="n">
-        <v>793.3606943740712</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="Q33" t="n">
-        <v>786.4450312622848</v>
+        <v>786.4450312622844</v>
       </c>
       <c r="R33" t="n">
-        <v>786.4450312622848</v>
+        <v>786.4450312622844</v>
       </c>
       <c r="S33" t="n">
-        <v>786.4450312622848</v>
+        <v>786.4450312622844</v>
       </c>
       <c r="T33" t="n">
-        <v>784.9266249210013</v>
+        <v>784.926624921001</v>
       </c>
       <c r="U33" t="n">
-        <v>760.9255330009029</v>
+        <v>760.9255330009026</v>
       </c>
       <c r="V33" t="n">
         <v>733.4690236601255</v>
       </c>
       <c r="W33" t="n">
-        <v>679.6936631460053</v>
+        <v>679.6936631460054</v>
       </c>
       <c r="X33" t="n">
-        <v>675.8088775182902</v>
+        <v>675.8088775182904</v>
       </c>
       <c r="Y33" t="n">
-        <v>665.7913932092064</v>
+        <v>665.7913932092067</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C34" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D34" t="n">
-        <v>82.09718027320775</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E34" t="n">
-        <v>82.09718027320775</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F34" t="n">
-        <v>82.09718027320775</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G34" t="n">
-        <v>82.09718027320775</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H34" t="n">
-        <v>82.09718027320775</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I34" t="n">
-        <v>82.09718027320775</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J34" t="n">
-        <v>82.09718027320775</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K34" t="n">
-        <v>82.09718027320775</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="L34" t="n">
-        <v>82.09718027320775</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="M34" t="n">
-        <v>82.09718027320775</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="N34" t="n">
-        <v>82.09718027320775</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="O34" t="n">
-        <v>256.3464833623381</v>
+        <v>112.8332968425536</v>
       </c>
       <c r="P34" t="n">
-        <v>256.3464833623381</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="Q34" t="n">
-        <v>256.3464833623381</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="R34" t="n">
-        <v>266.2898381224442</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="S34" t="n">
-        <v>244.0994937177472</v>
+        <v>244.0994937177465</v>
       </c>
       <c r="T34" t="n">
-        <v>233.7015767757521</v>
+        <v>233.7015767757515</v>
       </c>
       <c r="U34" t="n">
-        <v>157.7525140695578</v>
+        <v>157.7525140695573</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024697</v>
+        <v>125.7908590024693</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398213</v>
+        <v>48.17092928398189</v>
       </c>
       <c r="X34" t="n">
-        <v>39.63307197063883</v>
+        <v>39.6330719706387</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
     </row>
     <row r="35">
@@ -6938,25 +6938,25 @@
         <v>244.942416002927</v>
       </c>
       <c r="K35" t="n">
-        <v>244.942416002927</v>
+        <v>502.7962265328097</v>
       </c>
       <c r="L35" t="n">
-        <v>291.7157542332211</v>
+        <v>549.5695647631038</v>
       </c>
       <c r="M35" t="n">
-        <v>549.5695647631038</v>
+        <v>630.4898754862558</v>
       </c>
       <c r="N35" t="n">
-        <v>624.956814696342</v>
+        <v>705.877125419494</v>
       </c>
       <c r="O35" t="n">
-        <v>659.2334983297717</v>
+        <v>740.1538090529236</v>
       </c>
       <c r="P35" t="n">
-        <v>669.9517276947134</v>
+        <v>740.1538090529236</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5121113040015</v>
+        <v>920.7141926622116</v>
       </c>
       <c r="R35" t="n">
         <v>926.9393577091847</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>705.0199822253163</v>
+        <v>592.8241881713031</v>
       </c>
       <c r="C36" t="n">
-        <v>515.60770795828</v>
+        <v>403.4119139042668</v>
       </c>
       <c r="D36" t="n">
-        <v>354.8275917193118</v>
+        <v>242.6317976652986</v>
       </c>
       <c r="E36" t="n">
-        <v>181.2643878407262</v>
+        <v>242.6317976652986</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83667155797032</v>
+        <v>82.20408138254268</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83667155797032</v>
+        <v>82.20408138254268</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83667155797032</v>
+        <v>82.20408138254268</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83667155797032</v>
+        <v>73.82473685802549</v>
       </c>
       <c r="J36" t="n">
         <v>20.83667155797032</v>
@@ -7059,7 +7059,7 @@
         <v>771.3600410982383</v>
       </c>
       <c r="Y36" t="n">
-        <v>705.0199822253163</v>
+        <v>771.3600410982383</v>
       </c>
     </row>
     <row r="37">
@@ -7075,25 +7075,25 @@
         <v>20.83667155797032</v>
       </c>
       <c r="D37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K37" t="n">
         <v>56.03657271633977</v>
@@ -7157,10 +7157,10 @@
         <v>477.7005590749671</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590288</v>
+        <v>377.2770891590289</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144265</v>
+        <v>244.8128742144266</v>
       </c>
       <c r="G38" t="n">
         <v>96.55210643589363</v>
@@ -7175,19 +7175,19 @@
         <v>244.942416002927</v>
       </c>
       <c r="K38" t="n">
-        <v>244.942416002927</v>
+        <v>432.5941451745996</v>
       </c>
       <c r="L38" t="n">
-        <v>291.7157542332211</v>
+        <v>479.3674834048937</v>
       </c>
       <c r="M38" t="n">
-        <v>372.636064956373</v>
+        <v>560.2877941280456</v>
       </c>
       <c r="N38" t="n">
-        <v>448.0233148896112</v>
+        <v>635.6750440612838</v>
       </c>
       <c r="O38" t="n">
-        <v>482.299998523041</v>
+        <v>669.9517276947134</v>
       </c>
       <c r="P38" t="n">
         <v>669.9517276947134</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>705.0199822253163</v>
+        <v>154.5911638351135</v>
       </c>
       <c r="C39" t="n">
-        <v>515.60770795828</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D39" t="n">
-        <v>354.8275917193118</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E39" t="n">
-        <v>181.2643878407262</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F39" t="n">
         <v>20.83667155797032</v>
@@ -7272,31 +7272,31 @@
         <v>778.2757042100246</v>
       </c>
       <c r="Q39" t="n">
-        <v>771.3600410982383</v>
+        <v>778.2757042100246</v>
       </c>
       <c r="R39" t="n">
-        <v>771.3600410982383</v>
+        <v>778.2757042100246</v>
       </c>
       <c r="S39" t="n">
-        <v>771.3600410982383</v>
+        <v>778.2757042100246</v>
       </c>
       <c r="T39" t="n">
-        <v>771.3600410982383</v>
+        <v>778.2757042100246</v>
       </c>
       <c r="U39" t="n">
-        <v>771.3600410982383</v>
+        <v>778.2757042100246</v>
       </c>
       <c r="V39" t="n">
-        <v>771.3600410982383</v>
+        <v>778.2757042100246</v>
       </c>
       <c r="W39" t="n">
-        <v>771.3600410982383</v>
+        <v>778.2757042100246</v>
       </c>
       <c r="X39" t="n">
-        <v>771.3600410982383</v>
+        <v>558.767709826721</v>
       </c>
       <c r="Y39" t="n">
-        <v>771.3600410982383</v>
+        <v>333.1270167620486</v>
       </c>
     </row>
     <row r="40">
@@ -7333,22 +7333,22 @@
         <v>20.83667155797032</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Q40" t="n">
         <v>56.03657271633977</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.5041758676707</v>
+        <v>818.5041758676713</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1923754002145</v>
+        <v>708.192375400215</v>
       </c>
       <c r="D41" t="n">
-        <v>610.4395019418002</v>
+        <v>610.4395019418009</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6394038173164</v>
+        <v>478.6394038173171</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7985606641687</v>
+        <v>314.7985606641691</v>
       </c>
       <c r="G41" t="n">
         <v>135.1611646770912</v>
@@ -7409,25 +7409,25 @@
         <v>28.06910159062234</v>
       </c>
       <c r="J41" t="n">
-        <v>190.670379421188</v>
+        <v>190.6703794211881</v>
       </c>
       <c r="K41" t="n">
-        <v>422.6396211673109</v>
+        <v>422.639621167311</v>
       </c>
       <c r="L41" t="n">
-        <v>469.4129593976051</v>
+        <v>707.9998061668184</v>
       </c>
       <c r="M41" t="n">
-        <v>550.333270120757</v>
+        <v>1027.506963659184</v>
       </c>
       <c r="N41" t="n">
-        <v>679.7150721488512</v>
+        <v>1102.894213592422</v>
       </c>
       <c r="O41" t="n">
-        <v>952.5786025514941</v>
+        <v>1137.170897225852</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.272233167332</v>
+        <v>1176.272233167331</v>
       </c>
       <c r="Q41" t="n">
         <v>1326.080383469424</v>
@@ -7442,19 +7442,19 @@
         <v>1403.455079531117</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.208918225168</v>
+        <v>1394.208918225169</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.519050860769</v>
+        <v>1313.51905086077</v>
       </c>
       <c r="W41" t="n">
         <v>1215.640617621002</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.654860675235</v>
+        <v>1095.654860675236</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.9389490590204</v>
+        <v>952.9389490590208</v>
       </c>
     </row>
     <row r="42">
@@ -7509,28 +7509,28 @@
         <v>785.5081342426766</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.5924711308903</v>
+        <v>780.1716896323841</v>
       </c>
       <c r="R42" t="n">
-        <v>778.5924711308903</v>
+        <v>780.1716896323841</v>
       </c>
       <c r="S42" t="n">
-        <v>778.5924711308903</v>
+        <v>780.1716896323841</v>
       </c>
       <c r="T42" t="n">
-        <v>778.5924711308903</v>
+        <v>780.1716896323841</v>
       </c>
       <c r="U42" t="n">
-        <v>742.2649502244738</v>
+        <v>540.547388956697</v>
       </c>
       <c r="V42" t="n">
-        <v>499.1852321281078</v>
+        <v>297.467670860331</v>
       </c>
       <c r="W42" t="n">
-        <v>473.2177890385983</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="X42" t="n">
-        <v>253.7097946552947</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="Y42" t="n">
         <v>28.06910159062234</v>
@@ -7573,37 +7573,37 @@
         <v>28.06910159062234</v>
       </c>
       <c r="L43" t="n">
-        <v>130.1759968085604</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="M43" t="n">
-        <v>130.1759968085604</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="N43" t="n">
-        <v>130.1759968085604</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1759968085604</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1759968085604</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.1759968085604</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="R43" t="n">
-        <v>130.1759968085604</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1759968085604</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="T43" t="n">
-        <v>130.1759968085604</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="U43" t="n">
-        <v>82.03485152697675</v>
+        <v>82.03485152697669</v>
       </c>
       <c r="V43" t="n">
-        <v>77.88111388449926</v>
+        <v>77.88111388449923</v>
       </c>
       <c r="W43" t="n">
         <v>28.06910159062234</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.5041758676708</v>
+        <v>818.5041758676714</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1923754002148</v>
+        <v>708.1923754002153</v>
       </c>
       <c r="D44" t="n">
-        <v>610.4395019418005</v>
+        <v>610.4395019418009</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6394038173165</v>
+        <v>478.6394038173169</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7985606641687</v>
+        <v>314.7985606641691</v>
       </c>
       <c r="G44" t="n">
         <v>135.1611646770912</v>
@@ -7649,22 +7649,22 @@
         <v>190.6703794211881</v>
       </c>
       <c r="K44" t="n">
-        <v>422.639621167311</v>
+        <v>422.6396211673109</v>
       </c>
       <c r="L44" t="n">
-        <v>707.9998061668183</v>
+        <v>707.9998061668182</v>
       </c>
       <c r="M44" t="n">
-        <v>788.9201168899702</v>
+        <v>788.92011688997</v>
       </c>
       <c r="N44" t="n">
-        <v>864.3073668232086</v>
+        <v>864.3073668232082</v>
       </c>
       <c r="O44" t="n">
-        <v>1137.170897225852</v>
+        <v>952.5786025514941</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.272233167331</v>
+        <v>1176.272233167332</v>
       </c>
       <c r="Q44" t="n">
         <v>1326.080383469424</v>
@@ -7679,19 +7679,19 @@
         <v>1403.455079531117</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.208918225168</v>
+        <v>1394.208918225169</v>
       </c>
       <c r="V44" t="n">
         <v>1313.51905086077</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.640617621002</v>
+        <v>1215.640617621003</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.654860675235</v>
+        <v>1095.654860675236</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.9389490590205</v>
+        <v>952.9389490590211</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>712.2524122579683</v>
+        <v>574.0891751144457</v>
       </c>
       <c r="C45" t="n">
-        <v>522.840137990932</v>
+        <v>384.6769008474093</v>
       </c>
       <c r="D45" t="n">
-        <v>362.0600217519638</v>
+        <v>223.8967846084411</v>
       </c>
       <c r="E45" t="n">
-        <v>188.4968178733783</v>
+        <v>50.33358072985556</v>
       </c>
       <c r="F45" t="n">
         <v>28.06910159062234</v>
@@ -7728,49 +7728,49 @@
         <v>28.06910159062234</v>
       </c>
       <c r="K45" t="n">
-        <v>66.0611686229271</v>
+        <v>66.06116862292704</v>
       </c>
       <c r="L45" t="n">
-        <v>183.4327335947455</v>
+        <v>183.4327335947454</v>
       </c>
       <c r="M45" t="n">
-        <v>365.1544780752437</v>
+        <v>365.1544780752436</v>
       </c>
       <c r="N45" t="n">
-        <v>570.1057459690936</v>
+        <v>570.1057459690934</v>
       </c>
       <c r="O45" t="n">
-        <v>701.8490332513807</v>
+        <v>701.8490332513804</v>
       </c>
       <c r="P45" t="n">
-        <v>785.5081342426768</v>
+        <v>785.5081342426765</v>
       </c>
       <c r="Q45" t="n">
-        <v>778.5924711308904</v>
+        <v>778.5924711308902</v>
       </c>
       <c r="R45" t="n">
-        <v>778.5924711308904</v>
+        <v>778.5924711308902</v>
       </c>
       <c r="S45" t="n">
-        <v>778.5924711308904</v>
+        <v>778.5924711308902</v>
       </c>
       <c r="T45" t="n">
-        <v>778.5924711308904</v>
+        <v>778.5924711308902</v>
       </c>
       <c r="U45" t="n">
-        <v>778.5924711308904</v>
+        <v>778.5924711308902</v>
       </c>
       <c r="V45" t="n">
-        <v>778.5924711308904</v>
+        <v>778.5924711308902</v>
       </c>
       <c r="W45" t="n">
-        <v>752.6250280413809</v>
+        <v>752.6250280413807</v>
       </c>
       <c r="X45" t="n">
-        <v>752.6250280413809</v>
+        <v>752.6250280413807</v>
       </c>
       <c r="Y45" t="n">
-        <v>752.6250280413809</v>
+        <v>752.6250280413807</v>
       </c>
     </row>
     <row r="46">
@@ -7795,52 +7795,52 @@
         <v>28.06910159062234</v>
       </c>
       <c r="G46" t="n">
-        <v>99.64233040037585</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="H46" t="n">
-        <v>99.64233040037585</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="I46" t="n">
-        <v>99.64233040037585</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="J46" t="n">
-        <v>99.64233040037585</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="K46" t="n">
-        <v>99.64233040037585</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="L46" t="n">
-        <v>99.64233040037585</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="M46" t="n">
-        <v>99.64233040037585</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="N46" t="n">
-        <v>99.64233040037585</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="O46" t="n">
-        <v>99.64233040037585</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="P46" t="n">
-        <v>99.64233040037585</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.1759968085604</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="R46" t="n">
-        <v>130.1759968085604</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="S46" t="n">
-        <v>130.1759968085604</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="T46" t="n">
-        <v>130.1759968085604</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="U46" t="n">
-        <v>82.03485152697675</v>
+        <v>82.03485152697669</v>
       </c>
       <c r="V46" t="n">
-        <v>77.88111388449926</v>
+        <v>77.88111388449923</v>
       </c>
       <c r="W46" t="n">
         <v>28.06910159062234</v>
@@ -8769,7 +8769,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841508</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1547529041439</v>
+        <v>292.1547529041438</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9006,7 +9006,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.3734735841509</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9243,7 +9243,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841511</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9255,7 +9255,7 @@
         <v>292.1547529041439</v>
       </c>
       <c r="O18" t="n">
-        <v>255.2227828913208</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9480,7 +9480,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.3734735841509</v>
+        <v>171.3734735841511</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9723,16 +9723,16 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>301.77688131</v>
+        <v>301.7768813100006</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1547529041437</v>
+        <v>292.1547529041441</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786787</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.22154508480697</v>
+        <v>7.195214002696559</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>171.8758480566236</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.4425103176721</v>
       </c>
       <c r="E11" t="n">
         <v>193.149262737081</v>
       </c>
       <c r="F11" t="n">
-        <v>224.8696003154583</v>
+        <v>211.2413610300872</v>
       </c>
       <c r="G11" t="n">
         <v>240.5081876210496</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.53078872718773</v>
       </c>
       <c r="S11" t="n">
         <v>49.17968824550873</v>
@@ -23312,7 +23312,7 @@
         <v>44.13476116065507</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>71.82086528673112</v>
       </c>
       <c r="V11" t="n">
         <v>142.5501342845968</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.4530649701509</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.9559180938947</v>
+        <v>15.39354104331312</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.7575910532782</v>
+        <v>7.195214002696588</v>
       </c>
       <c r="C14" t="n">
         <v>171.8758480566237</v>
       </c>
       <c r="D14" t="n">
-        <v>159.4425103176721</v>
+        <v>159.4425103176722</v>
       </c>
       <c r="E14" t="n">
         <v>193.149262737081</v>
       </c>
       <c r="F14" t="n">
-        <v>36.30722326487671</v>
+        <v>148.7550277415225</v>
       </c>
       <c r="G14" t="n">
-        <v>51.94581057046804</v>
+        <v>240.5081876210497</v>
       </c>
       <c r="H14" t="n">
-        <v>168.6883080494462</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384207</v>
+        <v>62.6671655938421</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550879</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13476116065514</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673111</v>
+        <v>71.82086528673113</v>
       </c>
       <c r="V14" t="n">
         <v>142.5501342845969</v>
@@ -23558,10 +23558,10 @@
         <v>159.5668145012118</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.453064970151</v>
       </c>
       <c r="Y14" t="n">
-        <v>47.29165303449966</v>
+        <v>15.39354104331315</v>
       </c>
     </row>
     <row r="15">
@@ -26317,19 +26317,19 @@
         <v>154338.0991558804</v>
       </c>
       <c r="D2" t="n">
-        <v>154338.0991558804</v>
+        <v>154338.0991558805</v>
       </c>
       <c r="E2" t="n">
-        <v>132998.2655785839</v>
+        <v>132998.265578584</v>
       </c>
       <c r="F2" t="n">
         <v>132998.2655785839</v>
       </c>
       <c r="G2" t="n">
-        <v>154650.7460502439</v>
+        <v>154650.7460502438</v>
       </c>
       <c r="H2" t="n">
-        <v>154650.7460502439</v>
+        <v>154650.7460502438</v>
       </c>
       <c r="I2" t="n">
         <v>154650.7460502438</v>
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>280312.8421842064</v>
+        <v>280312.8421842063</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400482</v>
+        <v>95275.95397400485</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143645.0035243412</v>
+        <v>143645.0035243411</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.95397400473</v>
+        <v>95275.95397400486</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145974</v>
+        <v>46874.16014145961</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.4818166</v>
+        <v>72403.48181660005</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>440811.1417349353</v>
       </c>
       <c r="E4" t="n">
-        <v>331148.6906652544</v>
+        <v>331148.6906652543</v>
       </c>
       <c r="F4" t="n">
         <v>331148.6906652543</v>
@@ -26436,16 +26436,16 @@
         <v>401611.6670699618</v>
       </c>
       <c r="I4" t="n">
-        <v>401611.6670699617</v>
+        <v>401611.6670699618</v>
       </c>
       <c r="J4" t="n">
-        <v>402517.617503318</v>
+        <v>402517.6175033179</v>
       </c>
       <c r="K4" t="n">
-        <v>402517.617503318</v>
+        <v>402517.6175033181</v>
       </c>
       <c r="L4" t="n">
-        <v>402517.617503318</v>
+        <v>402517.6175033181</v>
       </c>
       <c r="M4" t="n">
         <v>401692.5905255167</v>
@@ -26457,7 +26457,7 @@
         <v>402079.8338982544</v>
       </c>
       <c r="P4" t="n">
-        <v>402079.8338982544</v>
+        <v>402079.8338982545</v>
       </c>
     </row>
     <row r="5">
@@ -26488,16 +26488,16 @@
         <v>38676.13884131941</v>
       </c>
       <c r="I5" t="n">
-        <v>38676.1388413194</v>
+        <v>38676.13884131941</v>
       </c>
       <c r="J5" t="n">
+        <v>47453.77647951488</v>
+      </c>
+      <c r="K5" t="n">
         <v>47453.7764795149</v>
       </c>
-      <c r="K5" t="n">
-        <v>47453.77647951491</v>
-      </c>
       <c r="L5" t="n">
-        <v>47453.7764795149</v>
+        <v>47453.77647951489</v>
       </c>
       <c r="M5" t="n">
         <v>40915.013666005</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-320100.6425790548</v>
+        <v>-320105.10896326</v>
       </c>
       <c r="C6" t="n">
-        <v>-320100.6425790549</v>
+        <v>-320105.1089632601</v>
       </c>
       <c r="D6" t="n">
-        <v>-320100.6425790548</v>
+        <v>-320105.10896326</v>
       </c>
       <c r="E6" t="n">
-        <v>-507127.2133938954</v>
+        <v>-507436.5345434904</v>
       </c>
       <c r="F6" t="n">
-        <v>-226814.371209689</v>
+        <v>-227123.6923592841</v>
       </c>
       <c r="G6" t="n">
-        <v>-380913.0138350421</v>
+        <v>-380913.0138350422</v>
       </c>
       <c r="H6" t="n">
         <v>-285637.0598610374</v>
       </c>
       <c r="I6" t="n">
-        <v>-285637.0598610373</v>
+        <v>-285637.0598610374</v>
       </c>
       <c r="J6" t="n">
-        <v>-438965.6514569301</v>
+        <v>-438965.6514569299</v>
       </c>
       <c r="K6" t="n">
-        <v>-295320.6479325889</v>
+        <v>-295320.647932589</v>
       </c>
       <c r="L6" t="n">
-        <v>-390596.6019065936</v>
+        <v>-390596.6019065939</v>
       </c>
       <c r="M6" t="n">
-        <v>-334831.0182827376</v>
+        <v>-334831.0182827375</v>
       </c>
       <c r="N6" t="n">
-        <v>-287956.8581412778</v>
+        <v>-287956.8581412779</v>
       </c>
       <c r="O6" t="n">
         <v>-363632.8064161356</v>
       </c>
       <c r="P6" t="n">
-        <v>-291229.3245995356</v>
+        <v>-291229.3245995357</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26710,10 @@
         <v>213.4669766680327</v>
       </c>
       <c r="K2" t="n">
+        <v>213.4669766680327</v>
+      </c>
+      <c r="L2" t="n">
         <v>213.4669766680328</v>
-      </c>
-      <c r="L2" t="n">
-        <v>213.4669766680327</v>
       </c>
       <c r="M2" t="n">
         <v>272.0596768448573</v>
@@ -26744,28 +26744,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.2549683154702</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="F3" t="n">
-        <v>101.2549683154702</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="G3" t="n">
-        <v>101.2549683154702</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="H3" t="n">
-        <v>101.2549683154702</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="I3" t="n">
-        <v>101.2549683154702</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="J3" t="n">
-        <v>101.2549683154702</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="K3" t="n">
-        <v>101.2549683154702</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="L3" t="n">
-        <v>101.2549683154703</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="M3" t="n">
         <v>101.2549683154703</v>
@@ -26777,7 +26777,7 @@
         <v>101.2549683154703</v>
       </c>
       <c r="P3" t="n">
-        <v>101.2549683154703</v>
+        <v>101.2549683154702</v>
       </c>
     </row>
     <row r="4">
@@ -26808,16 +26808,16 @@
         <v>188.5623770505816</v>
       </c>
       <c r="I4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="J4" t="n">
-        <v>449.0207715252106</v>
+        <v>449.0207715252105</v>
       </c>
       <c r="K4" t="n">
         <v>449.0207715252106</v>
       </c>
       <c r="L4" t="n">
-        <v>449.0207715252106</v>
+        <v>449.0207715252104</v>
       </c>
       <c r="M4" t="n">
         <v>260.458394474629</v>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.094942467506</v>
+        <v>119.0949424675061</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.37203420052666</v>
+        <v>94.37203420052668</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.0949424675059</v>
+        <v>119.0949424675061</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682468</v>
+        <v>58.59270017682451</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406655</v>
+        <v>63.30917227406661</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.2549683154702</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>188.5623770505816</v>
+        <v>188.5623770505814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4583944746292</v>
+        <v>260.4583944746287</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.094942467506</v>
+        <v>119.0949424675061</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.37203420052666</v>
+        <v>94.37203420052668</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>188.5623770505816</v>
+        <v>188.5623770505814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28114,25 +28114,25 @@
         <v>178.3296493245552</v>
       </c>
       <c r="K11" t="n">
+        <v>75.18812391686836</v>
+      </c>
+      <c r="L11" t="n">
+        <v>141.3165808583654</v>
+      </c>
+      <c r="M11" t="n">
+        <v>106.8246894514383</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>15.04365268017744</v>
+      </c>
+      <c r="Q11" t="n">
         <v>178.3296493245552</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>178.3296493245552</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>160.0433975822946</v>
       </c>
       <c r="R11" t="n">
         <v>178.3296493245552</v>
@@ -28178,7 +28178,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>148.7444246896586</v>
@@ -28217,10 +28217,10 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S12" t="n">
-        <v>10.50066552535444</v>
+        <v>117.5897200141747</v>
       </c>
       <c r="T12" t="n">
-        <v>26.40782189532166</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U12" t="n">
         <v>178.3296493245552</v>
@@ -28229,7 +28229,7 @@
         <v>178.3296493245552</v>
       </c>
       <c r="W12" t="n">
-        <v>178.3296493245552</v>
+        <v>78.14220652643002</v>
       </c>
       <c r="X12" t="n">
         <v>178.3296493245552</v>
@@ -28251,10 +28251,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>178.3296493245552</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>178.3296493245552</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -28272,25 +28272,25 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K13" t="n">
-        <v>67.01246855587063</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="L13" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="M13" t="n">
-        <v>25.1932384637467</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="N13" t="n">
-        <v>16.49709222984358</v>
+        <v>115.0967233700287</v>
       </c>
       <c r="O13" t="n">
-        <v>178.3296493245552</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3296493245552</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q13" t="n">
-        <v>159.7157306008118</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R13" t="n">
         <v>178.3296493245552</v>
@@ -28351,22 +28351,22 @@
         <v>178.3296493245551</v>
       </c>
       <c r="K14" t="n">
+        <v>6.684449518273148</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>153.3589480640218</v>
+      </c>
+      <c r="P14" t="n">
         <v>178.3296493245551</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>160.0433975822948</v>
       </c>
       <c r="Q14" t="n">
         <v>178.3296493245551</v>
@@ -28409,7 +28409,7 @@
         <v>178.3296493245551</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28418,7 +28418,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>125.7337882414754</v>
@@ -28454,22 +28454,22 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S15" t="n">
-        <v>3.025074842490255</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="T15" t="n">
-        <v>160.1265180379207</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="U15" t="n">
         <v>178.3296493245551</v>
       </c>
       <c r="V15" t="n">
-        <v>52.08654386482061</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="W15" t="n">
         <v>178.3296493245551</v>
       </c>
       <c r="X15" t="n">
-        <v>178.3296493245551</v>
+        <v>166.4955778623587</v>
       </c>
       <c r="Y15" t="n">
         <v>178.3296493245551</v>
@@ -28488,46 +28488,46 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="G16" t="n">
         <v>168.7006242014745</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8230575663656</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="I16" t="n">
         <v>164.8484353357569</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2289512774728</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="K16" t="n">
-        <v>67.01246855587063</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="L16" t="n">
-        <v>34.41654984141349</v>
+        <v>109.3830575117447</v>
       </c>
       <c r="M16" t="n">
-        <v>178.3296493245551</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N16" t="n">
-        <v>178.3296493245551</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O16" t="n">
         <v>178.3296493245551</v>
       </c>
       <c r="P16" t="n">
-        <v>58.46036931460876</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.3296493245551</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R16" t="n">
         <v>178.3296493245551</v>
@@ -28582,13 +28582,13 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I17" t="n">
-        <v>240.9968149183972</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J17" t="n">
-        <v>265.3154769886094</v>
+        <v>146.4891257467516</v>
       </c>
       <c r="K17" t="n">
-        <v>6.684449518273141</v>
+        <v>6.684449518273148</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28606,16 +28606,16 @@
         <v>15.04365268017744</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2378280274713</v>
+        <v>278.2378280274712</v>
       </c>
       <c r="R17" t="n">
-        <v>207.4220449903998</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S17" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4644104852103</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="U17" t="n">
         <v>297.4245917920612</v>
@@ -28640,16 +28640,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -28664,7 +28664,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>22.80035110823578</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28697,19 +28697,19 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U18" t="n">
-        <v>48.66568061834855</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V18" t="n">
-        <v>52.08654386482061</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>159.9235329985823</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.82190908344398</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28746,7 +28746,7 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K19" t="n">
-        <v>67.01246855587063</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L19" t="n">
         <v>32.12940745055724</v>
@@ -28755,13 +28755,13 @@
         <v>25.1932384637467</v>
       </c>
       <c r="N19" t="n">
-        <v>16.49709222984358</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O19" t="n">
         <v>37.45757960830502</v>
       </c>
       <c r="P19" t="n">
-        <v>58.46036931460876</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q19" t="n">
         <v>127.204364743505</v>
@@ -28822,10 +28822,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J20" t="n">
-        <v>76.7530999380278</v>
+        <v>232.487349057015</v>
       </c>
       <c r="K20" t="n">
-        <v>6.684449518273141</v>
+        <v>6.684449518273148</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,10 +28840,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>29.48960192935741</v>
+        <v>15.04365268017744</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.2378280274712</v>
+        <v>89.67545097688964</v>
       </c>
       <c r="R20" t="n">
         <v>297.4245917920612</v>
@@ -28855,7 +28855,7 @@
         <v>297.4245917920612</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1505146112862</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="V20" t="n">
         <v>297.4245917920612</v>
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>101.1595358731024</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H21" t="n">
         <v>125.7337882414754</v>
@@ -28901,7 +28901,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J21" t="n">
-        <v>52.45818464705462</v>
+        <v>4.873295830498478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K22" t="n">
-        <v>67.01246855587063</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L22" t="n">
         <v>32.12940745055724</v>
@@ -28992,13 +28992,13 @@
         <v>25.1932384637467</v>
       </c>
       <c r="N22" t="n">
-        <v>16.49709222984358</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O22" t="n">
         <v>37.45757960830502</v>
       </c>
       <c r="P22" t="n">
-        <v>58.46036931460876</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q22" t="n">
         <v>127.204364743505</v>
@@ -29056,13 +29056,13 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I23" t="n">
-        <v>240.9968149183972</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J23" t="n">
-        <v>265.3154769886092</v>
+        <v>265.3154769886096</v>
       </c>
       <c r="K23" t="n">
-        <v>6.684449518273141</v>
+        <v>6.684449518273148</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29080,19 +29080,19 @@
         <v>15.04365268017744</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2378280274711</v>
+        <v>159.4114767856138</v>
       </c>
       <c r="R23" t="n">
+        <v>194.8604380517429</v>
+      </c>
+      <c r="S23" t="n">
         <v>297.4245917920612</v>
       </c>
-      <c r="S23" t="n">
-        <v>227.5093375700639</v>
-      </c>
       <c r="T23" t="n">
-        <v>222.4644104852103</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="U23" t="n">
-        <v>277.3372992123966</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="V23" t="n">
         <v>297.4245917920612</v>
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -29135,7 +29135,7 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29171,19 +29171,19 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2280576689302</v>
+        <v>48.66568061834838</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>52.08654386482044</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>29.32670718953088</v>
       </c>
       <c r="Y24" t="n">
-        <v>74.35706540246241</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29220,7 +29220,7 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K25" t="n">
-        <v>67.01246855587063</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L25" t="n">
         <v>32.12940745055724</v>
@@ -29229,13 +29229,13 @@
         <v>25.1932384637467</v>
       </c>
       <c r="N25" t="n">
-        <v>16.49709222984358</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O25" t="n">
         <v>37.45757960830502</v>
       </c>
       <c r="P25" t="n">
-        <v>58.46036931460876</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q25" t="n">
         <v>127.204364743505</v>
@@ -29308,7 +29308,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4669766680335</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="O26" t="n">
         <v>213.4669766680327</v>
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>53.77044338835478</v>
+        <v>53.77044338835535</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29375,7 +29375,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J27" t="n">
-        <v>52.45818464705462</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29454,25 +29454,25 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J28" t="n">
+        <v>120.2289512774728</v>
+      </c>
+      <c r="K28" t="n">
         <v>213.4669766680327</v>
       </c>
-      <c r="K28" t="n">
-        <v>206.4695708425098</v>
-      </c>
       <c r="L28" t="n">
-        <v>32.12940745055724</v>
+        <v>118.3700270155946</v>
       </c>
       <c r="M28" t="n">
         <v>25.1932384637467</v>
       </c>
       <c r="N28" t="n">
-        <v>16.49709222984358</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O28" t="n">
         <v>37.45757960830502</v>
       </c>
       <c r="P28" t="n">
-        <v>58.46036931460876</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q28" t="n">
         <v>127.204364743505</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="C29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="D29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="E29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="F29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="G29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="H29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="I29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="J29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="K29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="L29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="M29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="N29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="O29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="P29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="R29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="S29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="30">
@@ -29591,16 +29591,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>53.77044338835432</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7444246896586</v>
@@ -29612,7 +29612,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J30" t="n">
-        <v>52.45818464705462</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R30" t="n">
         <v>134.7086383504341</v>
@@ -29642,22 +29642,22 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T30" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U30" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V30" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W30" t="n">
-        <v>213.4669766680328</v>
+        <v>9.983389351111953</v>
       </c>
       <c r="X30" t="n">
-        <v>213.4669766680328</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.4669766680328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29673,19 +29673,19 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>183.9029289208482</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>213.4669766680328</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>213.4669766680328</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
         <v>168.7006242014745</v>
       </c>
       <c r="H31" t="n">
-        <v>213.4669766680328</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I31" t="n">
         <v>164.8484353357569</v>
@@ -29694,22 +29694,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K31" t="n">
-        <v>67.01246855587063</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="L31" t="n">
-        <v>32.12940745055724</v>
+        <v>118.3700270155939</v>
       </c>
       <c r="M31" t="n">
         <v>25.1932384637467</v>
       </c>
       <c r="N31" t="n">
-        <v>16.49709222984358</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O31" t="n">
         <v>37.45757960830502</v>
       </c>
       <c r="P31" t="n">
-        <v>58.46036931460876</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q31" t="n">
         <v>127.204364743505</v>
@@ -29718,25 +29718,25 @@
         <v>203.4231839810568</v>
       </c>
       <c r="S31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="N32" t="n">
-        <v>213.4669766680331</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="33">
@@ -29825,10 +29825,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>71.69749866609229</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>53.77044338835455</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>148.7444246896586</v>
@@ -29849,7 +29849,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J33" t="n">
-        <v>52.45818464705461</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29879,22 +29879,22 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="34">
@@ -29910,7 +29910,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>191.8245881812066</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -29928,52 +29928,52 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J34" t="n">
-        <v>120.2289512774727</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K34" t="n">
-        <v>67.01246855587061</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L34" t="n">
-        <v>32.12940745055721</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M34" t="n">
-        <v>25.19323846374667</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N34" t="n">
-        <v>16.49709222984356</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O34" t="n">
-        <v>213.4669766680327</v>
+        <v>115.1460999320795</v>
       </c>
       <c r="P34" t="n">
-        <v>58.46036931460874</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q34" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R34" t="n">
-        <v>213.4669766680327</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="35">
@@ -30010,13 +30010,13 @@
         <v>272.0596768448573</v>
       </c>
       <c r="K35" t="n">
-        <v>6.684449518273084</v>
+        <v>267.1428439929021</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>178.7207068754857</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30025,13 +30025,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>25.87014698819934</v>
+        <v>15.04365268017737</v>
       </c>
       <c r="Q35" t="n">
         <v>272.0596768448573</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0596768448573</v>
+        <v>201.1484835537359</v>
       </c>
       <c r="S35" t="n">
         <v>272.0596768448573</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30071,7 +30071,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30083,10 +30083,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3572203790713</v>
+        <v>99.06166929979928</v>
       </c>
       <c r="J36" t="n">
-        <v>52.45818464705461</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>157.7076278498328</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30147,7 +30147,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>180.7381059662354</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
@@ -30168,7 +30168,7 @@
         <v>120.2289512774727</v>
       </c>
       <c r="K37" t="n">
-        <v>67.01246855587061</v>
+        <v>102.5679242713953</v>
       </c>
       <c r="L37" t="n">
         <v>32.12940745055721</v>
@@ -30247,7 +30247,7 @@
         <v>272.0596768448573</v>
       </c>
       <c r="K38" t="n">
-        <v>6.684449518273084</v>
+        <v>196.2316507017807</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>204.5908538636849</v>
+        <v>15.04365268017737</v>
       </c>
       <c r="Q38" t="n">
         <v>272.0596768448573</v>
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>111.073836113473</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>55.10120416999413</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7444246896586</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.846506480668449</v>
       </c>
       <c r="R39" t="n">
         <v>134.7086383504341</v>
@@ -30365,10 +30365,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30405,7 +30405,7 @@
         <v>120.2289512774727</v>
       </c>
       <c r="K40" t="n">
-        <v>102.5679242713953</v>
+        <v>67.01246855587061</v>
       </c>
       <c r="L40" t="n">
         <v>32.12940745055721</v>
@@ -30423,7 +30423,7 @@
         <v>58.46036931460874</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.204364743505</v>
+        <v>162.7598204590296</v>
       </c>
       <c r="R40" t="n">
         <v>203.4231839810568</v>
@@ -30487,19 +30487,19 @@
         <v>240.9968149183972</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="N41" t="n">
-        <v>54.53995161096556</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>240.9968149183972</v>
+        <v>54.53995161096513</v>
       </c>
       <c r="Q41" t="n">
         <v>240.9968149183972</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1.563426316478801</v>
       </c>
       <c r="R42" t="n">
         <v>134.7086383504341</v>
@@ -30593,19 +30593,19 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U42" t="n">
-        <v>201.2638119715778</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30645,7 +30645,7 @@
         <v>67.01246855587061</v>
       </c>
       <c r="L43" t="n">
-        <v>135.2676854484744</v>
+        <v>32.12940745055721</v>
       </c>
       <c r="M43" t="n">
         <v>25.19323846374667</v>
@@ -30660,7 +30660,7 @@
         <v>58.46036931460874</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.204364743505</v>
+        <v>230.3426427414221</v>
       </c>
       <c r="R43" t="n">
         <v>203.4231839810568</v>
@@ -30733,10 +30733,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
+        <v>54.53995161096589</v>
+      </c>
+      <c r="P44" t="n">
         <v>240.9968149183972</v>
-      </c>
-      <c r="P44" t="n">
-        <v>54.53995161096509</v>
       </c>
       <c r="Q44" t="n">
         <v>240.9968149183972</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>136.7816047720873</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -30785,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>136.7816047720875</v>
       </c>
       <c r="G45" t="n">
         <v>148.7444246896586</v>
@@ -30797,7 +30797,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J45" t="n">
-        <v>52.45818464705459</v>
+        <v>52.45818464705462</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30867,7 +30867,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>240.9968149183972</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H46" t="n">
         <v>165.8230575663656</v>
@@ -30876,34 +30876,34 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J46" t="n">
-        <v>120.2289512774727</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K46" t="n">
-        <v>67.0124685558706</v>
+        <v>67.01246855587063</v>
       </c>
       <c r="L46" t="n">
-        <v>32.1294074505572</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M46" t="n">
-        <v>25.19323846374665</v>
+        <v>25.19323846374669</v>
       </c>
       <c r="N46" t="n">
-        <v>16.49709222984354</v>
+        <v>119.6353702277607</v>
       </c>
       <c r="O46" t="n">
-        <v>37.45757960830498</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P46" t="n">
-        <v>58.46036931460873</v>
+        <v>58.46036931460876</v>
       </c>
       <c r="Q46" t="n">
-        <v>158.0464520244994</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R46" t="n">
         <v>203.4231839810568</v>
       </c>
       <c r="S46" t="n">
-        <v>235.4354176286826</v>
+        <v>235.4354176286827</v>
       </c>
       <c r="T46" t="n">
         <v>223.7609144406078</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4070551490069149</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H11" t="n">
         <v>4.168753544767068</v>
@@ -31762,28 +31762,28 @@
         <v>34.54829695302567</v>
       </c>
       <c r="K11" t="n">
-        <v>51.77894141048839</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L11" t="n">
-        <v>64.23635542690877</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M11" t="n">
-        <v>71.4753224330605</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N11" t="n">
-        <v>72.6318678751764</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O11" t="n">
-        <v>68.58421323723888</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P11" t="n">
-        <v>58.53503924613066</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.95737672232051</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R11" t="n">
-        <v>25.56967800380564</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S11" t="n">
         <v>9.275769207995081</v>
@@ -31835,7 +31835,7 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I12" t="n">
-        <v>7.498599068645668</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J12" t="n">
         <v>20.5767289856938</v>
@@ -31850,13 +31850,13 @@
         <v>55.18395773193122</v>
       </c>
       <c r="N12" t="n">
-        <v>56.64451288810439</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O12" t="n">
-        <v>51.81866288876707</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P12" t="n">
-        <v>41.58904538225415</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q12" t="n">
         <v>27.80117545144758</v>
@@ -31868,7 +31868,7 @@
         <v>4.045422554868074</v>
       </c>
       <c r="T12" t="n">
-        <v>0.877861470584123</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U12" t="n">
         <v>0.01432853325218918</v>
@@ -31914,7 +31914,7 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I13" t="n">
-        <v>5.491007134222547</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J13" t="n">
         <v>12.90917850146576</v>
@@ -31926,13 +31926,13 @@
         <v>27.14629101362621</v>
       </c>
       <c r="M13" t="n">
-        <v>28.62195768301068</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N13" t="n">
         <v>27.94139150252967</v>
       </c>
       <c r="O13" t="n">
-        <v>25.80839749785132</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P13" t="n">
         <v>22.08354259785269</v>
@@ -31941,16 +31941,16 @@
         <v>15.28950021563599</v>
       </c>
       <c r="R13" t="n">
-        <v>8.209952021119921</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S13" t="n">
-        <v>3.182061873127151</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7801612312831304</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00995950508021019</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4070551490069149</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H14" t="n">
         <v>4.168753544767068</v>
@@ -31999,28 +31999,28 @@
         <v>34.54829695302567</v>
       </c>
       <c r="K14" t="n">
-        <v>51.77894141048839</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L14" t="n">
-        <v>64.23635542690877</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M14" t="n">
-        <v>71.4753224330605</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N14" t="n">
-        <v>72.6318678751764</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O14" t="n">
-        <v>68.58421323723888</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P14" t="n">
-        <v>58.53503924613066</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.95737672232051</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R14" t="n">
-        <v>25.56967800380564</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S14" t="n">
         <v>9.275769207995081</v>
@@ -32072,7 +32072,7 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I15" t="n">
-        <v>7.498599068645668</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J15" t="n">
         <v>20.5767289856938</v>
@@ -32087,13 +32087,13 @@
         <v>55.18395773193122</v>
       </c>
       <c r="N15" t="n">
-        <v>56.64451288810439</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O15" t="n">
-        <v>51.81866288876707</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P15" t="n">
-        <v>41.58904538225415</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q15" t="n">
         <v>27.80117545144758</v>
@@ -32105,7 +32105,7 @@
         <v>4.045422554868074</v>
       </c>
       <c r="T15" t="n">
-        <v>0.877861470584123</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U15" t="n">
         <v>0.01432853325218918</v>
@@ -32151,7 +32151,7 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I16" t="n">
-        <v>5.491007134222547</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J16" t="n">
         <v>12.90917850146576</v>
@@ -32163,13 +32163,13 @@
         <v>27.14629101362621</v>
       </c>
       <c r="M16" t="n">
-        <v>28.62195768301068</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N16" t="n">
         <v>27.94139150252967</v>
       </c>
       <c r="O16" t="n">
-        <v>25.80839749785132</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P16" t="n">
         <v>22.08354259785269</v>
@@ -32178,16 +32178,16 @@
         <v>15.28950021563599</v>
       </c>
       <c r="R16" t="n">
-        <v>8.209952021119921</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S16" t="n">
-        <v>3.182061873127151</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7801612312831304</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00995950508021019</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4070551490069149</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H17" t="n">
         <v>4.168753544767068</v>
@@ -32236,28 +32236,28 @@
         <v>34.54829695302567</v>
       </c>
       <c r="K17" t="n">
-        <v>51.77894141048839</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L17" t="n">
-        <v>64.23635542690877</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M17" t="n">
-        <v>71.4753224330605</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N17" t="n">
-        <v>72.6318678751764</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O17" t="n">
-        <v>68.58421323723888</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P17" t="n">
-        <v>58.53503924613066</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.95737672232051</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R17" t="n">
-        <v>25.56967800380564</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S17" t="n">
         <v>9.275769207995081</v>
@@ -32309,7 +32309,7 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I18" t="n">
-        <v>7.498599068645668</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J18" t="n">
         <v>20.5767289856938</v>
@@ -32324,13 +32324,13 @@
         <v>55.18395773193122</v>
       </c>
       <c r="N18" t="n">
-        <v>56.64451288810439</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O18" t="n">
-        <v>51.81866288876707</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P18" t="n">
-        <v>41.58904538225415</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q18" t="n">
         <v>27.80117545144758</v>
@@ -32342,7 +32342,7 @@
         <v>4.045422554868074</v>
       </c>
       <c r="T18" t="n">
-        <v>0.877861470584123</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U18" t="n">
         <v>0.01432853325218918</v>
@@ -32388,7 +32388,7 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I19" t="n">
-        <v>5.491007134222547</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J19" t="n">
         <v>12.90917850146576</v>
@@ -32400,13 +32400,13 @@
         <v>27.14629101362621</v>
       </c>
       <c r="M19" t="n">
-        <v>28.62195768301068</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N19" t="n">
         <v>27.94139150252967</v>
       </c>
       <c r="O19" t="n">
-        <v>25.80839749785132</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P19" t="n">
         <v>22.08354259785269</v>
@@ -32415,16 +32415,16 @@
         <v>15.28950021563599</v>
       </c>
       <c r="R19" t="n">
-        <v>8.209952021119921</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S19" t="n">
-        <v>3.182061873127151</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7801612312831304</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00995950508021019</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4070551490069149</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H20" t="n">
         <v>4.168753544767068</v>
@@ -32473,28 +32473,28 @@
         <v>34.54829695302567</v>
       </c>
       <c r="K20" t="n">
-        <v>51.77894141048839</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L20" t="n">
-        <v>64.23635542690877</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M20" t="n">
-        <v>71.4753224330605</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N20" t="n">
-        <v>72.6318678751764</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O20" t="n">
-        <v>68.58421323723888</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P20" t="n">
-        <v>58.53503924613066</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.95737672232051</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R20" t="n">
-        <v>25.56967800380564</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S20" t="n">
         <v>9.275769207995081</v>
@@ -32546,7 +32546,7 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I21" t="n">
-        <v>7.498599068645668</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J21" t="n">
         <v>20.5767289856938</v>
@@ -32561,13 +32561,13 @@
         <v>55.18395773193122</v>
       </c>
       <c r="N21" t="n">
-        <v>56.64451288810439</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O21" t="n">
-        <v>51.81866288876707</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P21" t="n">
-        <v>41.58904538225415</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q21" t="n">
         <v>27.80117545144758</v>
@@ -32579,7 +32579,7 @@
         <v>4.045422554868074</v>
       </c>
       <c r="T21" t="n">
-        <v>0.877861470584123</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U21" t="n">
         <v>0.01432853325218918</v>
@@ -32625,7 +32625,7 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I22" t="n">
-        <v>5.491007134222547</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J22" t="n">
         <v>12.90917850146576</v>
@@ -32637,13 +32637,13 @@
         <v>27.14629101362621</v>
       </c>
       <c r="M22" t="n">
-        <v>28.62195768301068</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N22" t="n">
         <v>27.94139150252967</v>
       </c>
       <c r="O22" t="n">
-        <v>25.80839749785132</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P22" t="n">
         <v>22.08354259785269</v>
@@ -32652,16 +32652,16 @@
         <v>15.28950021563599</v>
       </c>
       <c r="R22" t="n">
-        <v>8.209952021119921</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S22" t="n">
-        <v>3.182061873127151</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7801612312831304</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00995950508021019</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4070551490069149</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H23" t="n">
         <v>4.168753544767068</v>
@@ -32710,28 +32710,28 @@
         <v>34.54829695302567</v>
       </c>
       <c r="K23" t="n">
-        <v>51.77894141048839</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L23" t="n">
-        <v>64.23635542690877</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M23" t="n">
-        <v>71.4753224330605</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N23" t="n">
-        <v>72.6318678751764</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O23" t="n">
-        <v>68.58421323723888</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P23" t="n">
-        <v>58.53503924613066</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.95737672232051</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R23" t="n">
-        <v>25.56967800380564</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S23" t="n">
         <v>9.275769207995081</v>
@@ -32783,7 +32783,7 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I24" t="n">
-        <v>7.498599068645668</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J24" t="n">
         <v>20.5767289856938</v>
@@ -32798,13 +32798,13 @@
         <v>55.18395773193122</v>
       </c>
       <c r="N24" t="n">
-        <v>56.64451288810439</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O24" t="n">
-        <v>51.81866288876707</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P24" t="n">
-        <v>41.58904538225415</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q24" t="n">
         <v>27.80117545144758</v>
@@ -32816,7 +32816,7 @@
         <v>4.045422554868074</v>
       </c>
       <c r="T24" t="n">
-        <v>0.877861470584123</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U24" t="n">
         <v>0.01432853325218918</v>
@@ -32862,7 +32862,7 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I25" t="n">
-        <v>5.491007134222547</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J25" t="n">
         <v>12.90917850146576</v>
@@ -32874,13 +32874,13 @@
         <v>27.14629101362621</v>
       </c>
       <c r="M25" t="n">
-        <v>28.62195768301068</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N25" t="n">
         <v>27.94139150252967</v>
       </c>
       <c r="O25" t="n">
-        <v>25.80839749785132</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P25" t="n">
         <v>22.08354259785269</v>
@@ -32889,16 +32889,16 @@
         <v>15.28950021563599</v>
       </c>
       <c r="R25" t="n">
-        <v>8.209952021119921</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S25" t="n">
-        <v>3.182061873127151</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7801612312831304</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00995950508021019</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4070551490069149</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H26" t="n">
         <v>4.168753544767068</v>
@@ -32947,28 +32947,28 @@
         <v>34.54829695302567</v>
       </c>
       <c r="K26" t="n">
-        <v>51.77894141048839</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L26" t="n">
-        <v>64.23635542690877</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M26" t="n">
-        <v>71.4753224330605</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N26" t="n">
-        <v>72.6318678751764</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O26" t="n">
-        <v>68.58421323723888</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P26" t="n">
-        <v>58.53503924613066</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.95737672232051</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R26" t="n">
-        <v>25.56967800380564</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S26" t="n">
         <v>9.275769207995081</v>
@@ -33020,7 +33020,7 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I27" t="n">
-        <v>7.498599068645668</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J27" t="n">
         <v>20.5767289856938</v>
@@ -33035,13 +33035,13 @@
         <v>55.18395773193122</v>
       </c>
       <c r="N27" t="n">
-        <v>56.64451288810439</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O27" t="n">
-        <v>51.81866288876707</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P27" t="n">
-        <v>41.58904538225415</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q27" t="n">
         <v>27.80117545144758</v>
@@ -33053,7 +33053,7 @@
         <v>4.045422554868074</v>
       </c>
       <c r="T27" t="n">
-        <v>0.877861470584123</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U27" t="n">
         <v>0.01432853325218918</v>
@@ -33099,7 +33099,7 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I28" t="n">
-        <v>5.491007134222547</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J28" t="n">
         <v>12.90917850146576</v>
@@ -33111,13 +33111,13 @@
         <v>27.14629101362621</v>
       </c>
       <c r="M28" t="n">
-        <v>28.62195768301068</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N28" t="n">
         <v>27.94139150252967</v>
       </c>
       <c r="O28" t="n">
-        <v>25.80839749785132</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P28" t="n">
         <v>22.08354259785269</v>
@@ -33126,16 +33126,16 @@
         <v>15.28950021563599</v>
       </c>
       <c r="R28" t="n">
-        <v>8.209952021119921</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S28" t="n">
-        <v>3.182061873127151</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7801612312831304</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00995950508021019</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4070551490069149</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H29" t="n">
         <v>4.168753544767068</v>
@@ -33184,28 +33184,28 @@
         <v>34.54829695302567</v>
       </c>
       <c r="K29" t="n">
-        <v>51.77894141048839</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L29" t="n">
-        <v>64.23635542690877</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M29" t="n">
-        <v>71.4753224330605</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N29" t="n">
-        <v>72.6318678751764</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O29" t="n">
-        <v>68.58421323723888</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P29" t="n">
-        <v>58.53503924613066</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.95737672232051</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R29" t="n">
-        <v>25.56967800380564</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S29" t="n">
         <v>9.275769207995081</v>
@@ -33257,7 +33257,7 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I30" t="n">
-        <v>7.498599068645668</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J30" t="n">
         <v>20.5767289856938</v>
@@ -33272,13 +33272,13 @@
         <v>55.18395773193122</v>
       </c>
       <c r="N30" t="n">
-        <v>56.64451288810439</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O30" t="n">
-        <v>51.81866288876707</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P30" t="n">
-        <v>41.58904538225415</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q30" t="n">
         <v>27.80117545144758</v>
@@ -33290,7 +33290,7 @@
         <v>4.045422554868074</v>
       </c>
       <c r="T30" t="n">
-        <v>0.877861470584123</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U30" t="n">
         <v>0.01432853325218918</v>
@@ -33336,7 +33336,7 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I31" t="n">
-        <v>5.491007134222547</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J31" t="n">
         <v>12.90917850146576</v>
@@ -33348,13 +33348,13 @@
         <v>27.14629101362621</v>
       </c>
       <c r="M31" t="n">
-        <v>28.62195768301068</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N31" t="n">
         <v>27.94139150252967</v>
       </c>
       <c r="O31" t="n">
-        <v>25.80839749785132</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P31" t="n">
         <v>22.08354259785269</v>
@@ -33363,16 +33363,16 @@
         <v>15.28950021563599</v>
       </c>
       <c r="R31" t="n">
-        <v>8.209952021119921</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S31" t="n">
-        <v>3.182061873127151</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7801612312831304</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U31" t="n">
-        <v>0.00995950508021019</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4070551490069153</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H32" t="n">
-        <v>4.168753544767072</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I32" t="n">
-        <v>15.69299363208912</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J32" t="n">
-        <v>34.54829695302571</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K32" t="n">
-        <v>51.77894141048844</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L32" t="n">
-        <v>64.23635542690884</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M32" t="n">
-        <v>71.47532243306057</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N32" t="n">
-        <v>72.63186787517647</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O32" t="n">
-        <v>68.58421323723896</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P32" t="n">
-        <v>58.53503924613072</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.95737672232055</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R32" t="n">
-        <v>25.56967800380566</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S32" t="n">
-        <v>9.275769207995092</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T32" t="n">
-        <v>1.781883914777773</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03256441192055322</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2177937054332756</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H33" t="n">
-        <v>2.103428681421373</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I33" t="n">
-        <v>7.498599068645675</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J33" t="n">
-        <v>20.57672898569382</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K33" t="n">
-        <v>35.16890724972329</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L33" t="n">
-        <v>47.28893590997505</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M33" t="n">
-        <v>55.18395773193128</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N33" t="n">
-        <v>56.64451288810444</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O33" t="n">
-        <v>51.81866288876712</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P33" t="n">
-        <v>41.58904538225419</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.80117545144761</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R33" t="n">
-        <v>13.52231444786601</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S33" t="n">
-        <v>4.045422554868078</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8778614705841239</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01432853325218919</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1825909264705201</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H34" t="n">
-        <v>1.623399328074262</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I34" t="n">
-        <v>5.491007134222552</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J34" t="n">
-        <v>12.90917850146577</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K34" t="n">
-        <v>21.2137458208477</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L34" t="n">
-        <v>27.14629101362624</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M34" t="n">
-        <v>28.62195768301071</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N34" t="n">
-        <v>27.9413915025297</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O34" t="n">
-        <v>25.80839749785134</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P34" t="n">
-        <v>22.08354259785271</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.28950021563601</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R34" t="n">
-        <v>8.209952021119928</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S34" t="n">
-        <v>3.182061873127154</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7801612312831312</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009959505080210198</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4070551490069155</v>
+        <v>0.4070551490069149</v>
       </c>
       <c r="H44" t="n">
-        <v>4.168753544767075</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I44" t="n">
-        <v>15.69299363208913</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J44" t="n">
-        <v>34.54829695302573</v>
+        <v>34.54829695302568</v>
       </c>
       <c r="K44" t="n">
-        <v>51.77894141048848</v>
+        <v>51.77894141048839</v>
       </c>
       <c r="L44" t="n">
-        <v>64.23635542690889</v>
+        <v>64.23635542690879</v>
       </c>
       <c r="M44" t="n">
-        <v>71.47532243306061</v>
+        <v>71.4753224330605</v>
       </c>
       <c r="N44" t="n">
-        <v>72.63186787517652</v>
+        <v>72.63186787517641</v>
       </c>
       <c r="O44" t="n">
-        <v>68.584213237239</v>
+        <v>68.58421323723888</v>
       </c>
       <c r="P44" t="n">
-        <v>58.53503924613076</v>
+        <v>58.53503924613067</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.95737672232058</v>
+        <v>43.95737672232052</v>
       </c>
       <c r="R44" t="n">
-        <v>25.56967800380568</v>
+        <v>25.56967800380564</v>
       </c>
       <c r="S44" t="n">
-        <v>9.275769207995097</v>
+        <v>9.275769207995083</v>
       </c>
       <c r="T44" t="n">
-        <v>1.781883914777774</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03256441192055324</v>
+        <v>0.03256441192055319</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2177937054332758</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H45" t="n">
-        <v>2.103428681421375</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I45" t="n">
-        <v>7.498599068645681</v>
+        <v>7.498599068645669</v>
       </c>
       <c r="J45" t="n">
-        <v>20.57672898569384</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K45" t="n">
-        <v>35.16890724972331</v>
+        <v>35.16890724972326</v>
       </c>
       <c r="L45" t="n">
-        <v>47.28893590997508</v>
+        <v>47.28893590997501</v>
       </c>
       <c r="M45" t="n">
-        <v>55.18395773193132</v>
+        <v>55.18395773193123</v>
       </c>
       <c r="N45" t="n">
-        <v>56.64451288810448</v>
+        <v>56.64451288810439</v>
       </c>
       <c r="O45" t="n">
-        <v>51.81866288876716</v>
+        <v>51.81866288876708</v>
       </c>
       <c r="P45" t="n">
-        <v>41.58904538225422</v>
+        <v>41.58904538225416</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.80117545144763</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R45" t="n">
-        <v>13.52231444786602</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S45" t="n">
-        <v>4.045422554868081</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841244</v>
+        <v>0.8778614705841231</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0143285332521892</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1825909264705202</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H46" t="n">
-        <v>1.623399328074263</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I46" t="n">
-        <v>5.491007134222555</v>
+        <v>5.491007134222547</v>
       </c>
       <c r="J46" t="n">
-        <v>12.90917850146578</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K46" t="n">
-        <v>21.21374582084771</v>
+        <v>21.21374582084768</v>
       </c>
       <c r="L46" t="n">
-        <v>27.14629101362626</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M46" t="n">
-        <v>28.62195768301073</v>
+        <v>28.62195768301068</v>
       </c>
       <c r="N46" t="n">
-        <v>27.94139150252972</v>
+        <v>27.94139150252968</v>
       </c>
       <c r="O46" t="n">
-        <v>25.80839749785136</v>
+        <v>25.80839749785132</v>
       </c>
       <c r="P46" t="n">
-        <v>22.08354259785273</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.28950021563602</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R46" t="n">
-        <v>8.209952021119935</v>
+        <v>8.209952021119923</v>
       </c>
       <c r="S46" t="n">
-        <v>3.182061873127156</v>
+        <v>3.182061873127151</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7801612312831318</v>
+        <v>0.7801612312831305</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009959505080210205</v>
+        <v>0.009959505080210191</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>101.5765493865274</v>
       </c>
       <c r="K11" t="n">
-        <v>171.6451998062821</v>
+        <v>68.50367439859522</v>
       </c>
       <c r="L11" t="n">
-        <v>47.2457961922162</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="M11" t="n">
-        <v>81.73768759914326</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="N11" t="n">
-        <v>76.1487373063012</v>
+        <v>76.14873730630119</v>
       </c>
       <c r="O11" t="n">
-        <v>34.62291276104006</v>
+        <v>34.62291276104004</v>
       </c>
       <c r="P11" t="n">
-        <v>163.2859966443777</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>70.36794660540501</v>
+        <v>88.65419834766556</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.37582528515626</v>
+        <v>38.37582528515614</v>
       </c>
       <c r="L12" t="n">
         <v>118.55713633517</v>
@@ -35547,10 +35547,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>33.14699907384448</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.6535081123302</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>111.3171807686846</v>
       </c>
       <c r="L13" t="n">
         <v>146.200241873998</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>153.1364108608085</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>98.59963114018508</v>
       </c>
       <c r="O13" t="n">
-        <v>140.8720697162502</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>119.8692800099464</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.51136585730683</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>101.5765493865273</v>
       </c>
       <c r="K14" t="n">
-        <v>171.645199806282</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>47.2457961922162</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M14" t="n">
-        <v>81.73768759914326</v>
+        <v>81.73768759914324</v>
       </c>
       <c r="N14" t="n">
-        <v>76.1487373063012</v>
+        <v>76.14873730630119</v>
       </c>
       <c r="O14" t="n">
-        <v>34.62291276104006</v>
+        <v>187.9818608250619</v>
       </c>
       <c r="P14" t="n">
-        <v>144.9997449021174</v>
+        <v>163.2859966443777</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.6541983476655</v>
+        <v>88.65419834766547</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L15" t="n">
         <v>118.55713633517</v>
@@ -35784,37 +35784,37 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.1469990738444</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.65350811233012</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.40276710610846</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.50659175818949</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.10069804708235</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>111.3171807686845</v>
       </c>
       <c r="L16" t="n">
-        <v>2.287142390856254</v>
+        <v>77.25365006118746</v>
       </c>
       <c r="M16" t="n">
-        <v>153.1364108608084</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>161.8325570947116</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>140.8720697162501</v>
@@ -35823,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.12528458105015</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,25 +35878,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>56.42777687366396</v>
       </c>
       <c r="J17" t="n">
-        <v>188.5623770505816</v>
+        <v>69.7360258087238</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.2457961922162</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M17" t="n">
-        <v>81.73768759914326</v>
+        <v>81.73768759914324</v>
       </c>
       <c r="N17" t="n">
-        <v>76.1487373063012</v>
+        <v>76.14873730630119</v>
       </c>
       <c r="O17" t="n">
-        <v>34.62291276104006</v>
+        <v>34.62291276104004</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,13 +35905,13 @@
         <v>188.5623770505816</v>
       </c>
       <c r="R17" t="n">
-        <v>12.56160693865688</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>69.91525422199724</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>74.96018130685088</v>
       </c>
       <c r="U17" t="n">
         <v>47.27407718077492</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.37582528515626</v>
+        <v>38.37582528515637</v>
       </c>
       <c r="L18" t="n">
         <v>118.55713633517</v>
@@ -35975,7 +35975,7 @@
         <v>188.5623770505816</v>
       </c>
       <c r="O18" t="n">
-        <v>133.0740275578657</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P18" t="n">
         <v>84.50414241545053</v>
@@ -36115,43 +36115,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.42777687366402</v>
+        <v>56.42777687366396</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>155.7342491189872</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.2457961922162</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M20" t="n">
-        <v>81.73768759914326</v>
+        <v>81.73768759914324</v>
       </c>
       <c r="N20" t="n">
-        <v>76.1487373063012</v>
+        <v>76.14873730630119</v>
       </c>
       <c r="O20" t="n">
-        <v>34.62291276104006</v>
+        <v>34.62291276104004</v>
       </c>
       <c r="P20" t="n">
-        <v>14.44594924917997</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5641537403183</v>
+        <v>102.5641537403182</v>
       </c>
       <c r="S20" t="n">
-        <v>69.9152542219973</v>
+        <v>69.91525422199724</v>
       </c>
       <c r="T20" t="n">
-        <v>74.96018130685094</v>
+        <v>74.96018130685088</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>47.27407718077492</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515637</v>
       </c>
       <c r="L21" t="n">
         <v>118.55713633517</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>56.42777687366396</v>
       </c>
       <c r="J23" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.2457961922162</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M23" t="n">
-        <v>81.73768759914326</v>
+        <v>81.73768759914324</v>
       </c>
       <c r="N23" t="n">
-        <v>76.1487373063012</v>
+        <v>76.14873730630119</v>
       </c>
       <c r="O23" t="n">
-        <v>34.62291276104006</v>
+        <v>34.62291276104004</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.5623770505815</v>
+        <v>69.73602580872419</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5641537403183</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.91525422199724</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>74.96018130685088</v>
       </c>
       <c r="U23" t="n">
-        <v>27.18678460111039</v>
+        <v>47.27407718077492</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.37582528515626</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L24" t="n">
         <v>118.55713633517</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570694</v>
       </c>
       <c r="N24" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="O24" t="n">
         <v>133.0740275578656</v>
       </c>
       <c r="P24" t="n">
-        <v>84.50414241544992</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,13 +36598,13 @@
         <v>206.7825271497595</v>
       </c>
       <c r="L26" t="n">
-        <v>260.7127728602489</v>
+        <v>260.7127728602488</v>
       </c>
       <c r="M26" t="n">
         <v>295.2046642671759</v>
       </c>
       <c r="N26" t="n">
-        <v>289.6157139743347</v>
+        <v>289.6157139743339</v>
       </c>
       <c r="O26" t="n">
         <v>248.0898894290727</v>
@@ -36613,10 +36613,10 @@
         <v>198.4233239878552</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.7915256911431</v>
+        <v>123.791525691143</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60653861628977</v>
+        <v>18.60653861628975</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.37582528515626</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L27" t="n">
         <v>118.55713633517</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.23802539055993</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>139.4571022866392</v>
+        <v>146.454508112162</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>86.24061956503732</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.713876730005</v>
+        <v>136.7138767300049</v>
       </c>
       <c r="K29" t="n">
         <v>206.7825271497596</v>
@@ -36841,7 +36841,7 @@
         <v>295.204664267176</v>
       </c>
       <c r="N29" t="n">
-        <v>289.615713974334</v>
+        <v>289.6157139743339</v>
       </c>
       <c r="O29" t="n">
         <v>248.0898894290728</v>
@@ -36853,7 +36853,7 @@
         <v>123.7915256911431</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60653861628987</v>
+        <v>18.60653861628984</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.37582528515626</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L30" t="n">
         <v>118.55713633517</v>
@@ -36969,19 +36969,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>38.72027867013744</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>71.79083545580778</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>74.54009444958612</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.64391910166715</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>146.4545081121621</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>86.24061956503665</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7138767300049</v>
+        <v>136.713876730005</v>
       </c>
       <c r="K32" t="n">
         <v>206.7825271497596</v>
@@ -37078,7 +37078,7 @@
         <v>295.204664267176</v>
       </c>
       <c r="N32" t="n">
-        <v>289.6157139743344</v>
+        <v>289.615713974334</v>
       </c>
       <c r="O32" t="n">
         <v>248.0898894290728</v>
@@ -37090,7 +37090,7 @@
         <v>123.7915256911431</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628977</v>
+        <v>18.60653861628985</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.3758252851563</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L33" t="n">
-        <v>118.5571363351701</v>
+        <v>118.55713633517</v>
       </c>
       <c r="M33" t="n">
-        <v>183.5573176570689</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N33" t="n">
-        <v>207.0214827210605</v>
+        <v>207.0214827210604</v>
       </c>
       <c r="O33" t="n">
-        <v>133.0740275578657</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P33" t="n">
-        <v>84.50414241545059</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37206,7 +37206,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>46.64193793049586</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37239,16 +37239,16 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>176.0093970597276</v>
+        <v>77.68852032377451</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>155.006607353424</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.04379268697582</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>195.3065769068295</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>260.458394474629</v>
       </c>
       <c r="L35" t="n">
         <v>47.24579619221628</v>
       </c>
       <c r="M35" t="n">
-        <v>260.458394474629</v>
+        <v>81.73768759914333</v>
       </c>
       <c r="N35" t="n">
         <v>76.14873730630127</v>
@@ -37321,13 +37321,13 @@
         <v>34.62291276104013</v>
       </c>
       <c r="P35" t="n">
-        <v>10.82649430802197</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>182.3842258679677</v>
       </c>
       <c r="R35" t="n">
-        <v>77.19923879311439</v>
+        <v>6.288045501993005</v>
       </c>
       <c r="S35" t="n">
         <v>44.55033927479337</v>
@@ -37443,28 +37443,28 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>35.55545571552469</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>195.3065769068295</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>189.5472011835076</v>
       </c>
       <c r="L38" t="n">
         <v>47.24579619221628</v>
@@ -37558,7 +37558,7 @@
         <v>34.62291276104013</v>
       </c>
       <c r="P38" t="n">
-        <v>189.5472011835075</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>182.3842258679677</v>
@@ -37701,25 +37701,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>35.55545571552469</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,31 +37783,31 @@
         <v>234.3123654001241</v>
       </c>
       <c r="L41" t="n">
-        <v>47.24579619221628</v>
+        <v>288.2426111106135</v>
       </c>
       <c r="M41" t="n">
-        <v>81.73768759914333</v>
+        <v>322.7345025175405</v>
       </c>
       <c r="N41" t="n">
-        <v>130.6886889172668</v>
+        <v>76.14873730630127</v>
       </c>
       <c r="O41" t="n">
-        <v>275.6197276794373</v>
+        <v>34.62291276104013</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9531622382198</v>
+        <v>39.49629893078775</v>
       </c>
       <c r="Q41" t="n">
         <v>151.3213639415076</v>
       </c>
       <c r="R41" t="n">
-        <v>46.13637686665429</v>
+        <v>46.13637686665432</v>
       </c>
       <c r="S41" t="n">
-        <v>13.48747734833327</v>
+        <v>13.48747734833329</v>
       </c>
       <c r="T41" t="n">
-        <v>18.5324044331869</v>
+        <v>18.53240443318693</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>103.1382779979172</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>103.1382779979171</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,19 +38020,19 @@
         <v>234.3123654001241</v>
       </c>
       <c r="L44" t="n">
-        <v>288.2426111106135</v>
+        <v>288.2426111106134</v>
       </c>
       <c r="M44" t="n">
-        <v>81.73768759914337</v>
+        <v>81.73768759914326</v>
       </c>
       <c r="N44" t="n">
-        <v>76.14873730630133</v>
+        <v>76.14873730630121</v>
       </c>
       <c r="O44" t="n">
-        <v>275.6197276794373</v>
+        <v>89.16286437200594</v>
       </c>
       <c r="P44" t="n">
-        <v>39.49629893078775</v>
+        <v>225.9531622382198</v>
       </c>
       <c r="Q44" t="n">
         <v>151.3213639415076</v>
@@ -38041,10 +38041,10 @@
         <v>46.1363768666543</v>
       </c>
       <c r="S44" t="n">
-        <v>13.48747734833327</v>
+        <v>13.48747734833329</v>
       </c>
       <c r="T44" t="n">
-        <v>18.5324044331869</v>
+        <v>18.53240443318693</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.37582528515632</v>
+        <v>38.37582528515627</v>
       </c>
       <c r="L45" t="n">
-        <v>118.5571363351701</v>
+        <v>118.55713633517</v>
       </c>
       <c r="M45" t="n">
-        <v>183.5573176570689</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N45" t="n">
-        <v>207.0214827210605</v>
+        <v>207.0214827210604</v>
       </c>
       <c r="O45" t="n">
-        <v>133.0740275578657</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P45" t="n">
-        <v>84.50414241545062</v>
+        <v>84.50414241545054</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38163,7 +38163,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>72.29619071692274</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>103.1382779979171</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.84208728099449</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
